--- a/Technology/Hardware/Arista Networks.xlsx
+++ b/Technology/Hardware/Arista Networks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08B0C9C-4E34-D042-8E68-44A5BA1813AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6C3A7-8946-E14E-9E68-93FDAAFFDF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,12 +556,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -893,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -931,9 +932,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -950,12 +948,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,6 +1005,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1025,12 +1023,17 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2280,11 +2283,11 @@
     <v>Powered by Refinitiv</v>
     <v>171.44</v>
     <v>89.114999999999995</v>
-    <v>1.2650999999999999</v>
-    <v>0.48</v>
-    <v>3.0890000000000002E-3</v>
-    <v>-0.38</v>
-    <v>-2.4380000000000001E-3</v>
+    <v>1.2818000000000001</v>
+    <v>14.98</v>
+    <v>0.106076</v>
+    <v>0.45</v>
+    <v>2.8810000000000003E-3</v>
     <v>USD</v>
     <v>Arista Networks, Inc. is a supplier of cloud networking solutions that use software to address the needs of Internet companies, cloud service providers and enterprises. The Company cloud networking solutions consist of its Extensible Operating System (EOS), a set of network applications and its Gigabit Ethernet switching and routing platforms. Its cognitive single-tier Spline campus network extends EOS across the data center and campus wired and wireless workspace. The Company’s CloudVision is a network-wide approach for workload orchestration and automation, leverages EOS and Cognitive WiFi features, to deliver cloud networking solutions to its enterprise customers. The Company sells its products through both its direct sales force and its channel partners. Its end customers span a range of industries and include large Internet companies, service providers, financial services organizations, government agencies, media and entertainment companies and other cloud service providers.</v>
     <v>3612</v>
@@ -2292,25 +2295,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5453 Great America Pkwy, SANTA CLARA, CA, 95054 US</v>
-    <v>156.41</v>
+    <v>156.76</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45037.986574536721</v>
+    <v>45071.999391503909</v>
     <v>0</v>
-    <v>153.74</v>
-    <v>47757850000</v>
+    <v>150.63249999999999</v>
+    <v>48153773360</v>
     <v>ARISTA NETWORKS, INC.</v>
     <v>ARISTA NETWORKS, INC.</v>
-    <v>155.43</v>
-    <v>36.342300000000002</v>
-    <v>155.38999999999999</v>
-    <v>155.87</v>
-    <v>155.49</v>
-    <v>306395400</v>
+    <v>153.22</v>
+    <v>32.493699999999997</v>
+    <v>141.22</v>
+    <v>156.19999999999999</v>
+    <v>156.65</v>
+    <v>308282800</v>
     <v>ANET</v>
     <v>ARISTA NETWORKS, INC. (XNYS:ANET)</v>
-    <v>1567715</v>
-    <v>2627316</v>
+    <v>8138364</v>
+    <v>3253534</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2475,9 +2478,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2898,10 +2901,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P100" sqref="P100"/>
+      <selection pane="bottomRight" activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2951,19 +2954,19 @@
       <c r="M1" s="8">
         <v>2022</v>
       </c>
-      <c r="N1" s="29">
+      <c r="N1" s="28">
         <v>2023</v>
       </c>
-      <c r="O1" s="29">
+      <c r="O1" s="28">
         <v>2024</v>
       </c>
-      <c r="P1" s="29">
+      <c r="P1" s="28">
         <v>2025</v>
       </c>
-      <c r="Q1" s="29">
+      <c r="Q1" s="28">
         <v>2026</v>
       </c>
-      <c r="R1" s="29">
+      <c r="R1" s="28">
         <v>2027</v>
       </c>
     </row>
@@ -3061,20 +3064,20 @@
       <c r="M3" s="1">
         <v>4381310000</v>
       </c>
-      <c r="N3" s="30">
-        <v>5485000000</v>
-      </c>
-      <c r="O3" s="30">
-        <v>6118000000</v>
-      </c>
-      <c r="P3" s="30">
-        <v>6622000000</v>
-      </c>
-      <c r="Q3" s="30">
-        <v>7160000000</v>
-      </c>
-      <c r="R3" s="30">
-        <v>7614000000</v>
+      <c r="N3" s="29">
+        <v>5532000000</v>
+      </c>
+      <c r="O3" s="29">
+        <v>6140000000</v>
+      </c>
+      <c r="P3" s="29">
+        <v>6817000000</v>
+      </c>
+      <c r="Q3" s="29">
+        <v>7397000000</v>
+      </c>
+      <c r="R3" s="29">
+        <v>7708000000</v>
       </c>
       <c r="S3" s="18" t="s">
         <v>109</v>
@@ -3140,23 +3143,23 @@
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25190867571571052</v>
+        <v>0.2626360609041587</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11540565177757522</v>
+        <v>0.1099060014461315</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>8.237986270022879E-2</v>
+        <v>0.11026058631921831</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>8.1244337058290483E-2</v>
+        <v>8.5081414111779274E-2</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>6.340782122905031E-2</v>
+        <v>4.2044071921049087E-2</v>
       </c>
       <c r="S4" s="17">
         <f>(M4+L4+K4)/3</f>
@@ -3669,7 +3672,7 @@
         <f>M22/(M72+M56+M61)</f>
         <v>0.30977138146417776</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="66">
         <f>M67/M72</f>
         <v>0.38674981886356846</v>
       </c>
@@ -3813,21 +3816,21 @@
       <c r="M16" s="1">
         <v>2854204000</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="30">
         <f>(M35+L35+K35+J35+I35)/5</f>
         <v>4.3644380616636029E-4</v>
       </c>
-      <c r="T16" s="32">
+      <c r="T16" s="64">
         <f>U101/M3</f>
-        <v>10.90035856855598</v>
-      </c>
-      <c r="U16" s="32">
+        <v>10.990725002339483</v>
+      </c>
+      <c r="U16" s="64">
         <f>U101/M28</f>
-        <v>35.312204701703429</v>
-      </c>
-      <c r="V16" s="33">
+        <v>35.604950852011839</v>
+      </c>
+      <c r="V16" s="65">
         <f>U101/M106</f>
-        <v>106.56214508366264</v>
+        <v>107.44556932764203</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3955,7 +3958,7 @@
       <c r="M19" s="10">
         <v>1657263000</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19" s="31">
         <f>M40-M56-M61</f>
         <v>2979765000</v>
       </c>
@@ -4630,64 +4633,64 @@
         <v>103</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <f>(C34-B34)/B34</f>
         <v>0.49633801524440951</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <f t="shared" ref="D35:K35" si="9">(D34-C34)/C34</f>
         <v>-0.33170180145649675</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="21">
         <f t="shared" si="9"/>
         <v>9.9666446443738895E-3</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="21">
         <f t="shared" si="9"/>
         <v>0.30813335775783113</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <f t="shared" si="9"/>
         <v>2.5360238618700199E-2</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="21">
         <f t="shared" si="9"/>
         <v>7.8596596651279674E-2</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="21">
         <f t="shared" si="9"/>
         <v>2.3639793864036366E-2</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="21">
         <f t="shared" si="9"/>
         <v>4.3293256147642375E-4</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <f t="shared" si="9"/>
         <v>-1.7482906564126658E-2</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="21">
         <f t="shared" ref="L35" si="10">(L34-K34)/K34</f>
         <v>0</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="21">
         <f t="shared" ref="M35" si="11">(M34-L34)/L34</f>
         <v>-4.4076008305543321E-3</v>
       </c>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22"/>
-      <c r="AL35" s="22"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="AH35" s="21"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+      <c r="AK35" s="21"/>
+      <c r="AL35" s="21"/>
     </row>
     <row r="36" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -6682,10 +6685,10 @@
       <c r="M83" s="1">
         <v>-638948000</v>
       </c>
-      <c r="T83" s="61" t="s">
+      <c r="T83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="U83" s="62"/>
+      <c r="U83" s="61"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6727,10 +6730,10 @@
       <c r="M84" s="1">
         <v>31436000</v>
       </c>
-      <c r="T84" s="63" t="s">
+      <c r="T84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="U84" s="64"/>
+      <c r="U84" s="63"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6772,10 +6775,10 @@
       <c r="M85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T85" s="23" t="s">
+      <c r="T85" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="U85" s="24">
+      <c r="U85" s="23">
         <f>M17</f>
         <v>0</v>
       </c>
@@ -6820,10 +6823,10 @@
       <c r="M86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T86" s="23" t="s">
+      <c r="T86" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="U86" s="24">
+      <c r="U86" s="23">
         <f>M56</f>
         <v>0</v>
       </c>
@@ -6868,10 +6871,10 @@
       <c r="M87" s="10">
         <v>492813000</v>
       </c>
-      <c r="T87" s="23" t="s">
+      <c r="T87" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="U87" s="24">
+      <c r="U87" s="23">
         <f>M61</f>
         <v>43964000</v>
       </c>
@@ -6916,10 +6919,10 @@
       <c r="M88" s="1">
         <v>-44644000</v>
       </c>
-      <c r="T88" s="35" t="s">
+      <c r="T88" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="U88" s="36">
+      <c r="U88" s="33">
         <f>U85/(U86+U87)</f>
         <v>0</v>
       </c>
@@ -6976,10 +6979,10 @@
         <f t="shared" si="13"/>
         <v>1.0189646475597482E-2</v>
       </c>
-      <c r="T89" s="23" t="s">
+      <c r="T89" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="U89" s="24">
+      <c r="U89" s="23">
         <f>M27</f>
         <v>229350000</v>
       </c>
@@ -6989,10 +6992,10 @@
       <c r="AJ89" s="15"/>
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
-      <c r="AS89" s="25" t="s">
+      <c r="AS89" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="AT89" s="26">
+      <c r="AT89" s="25">
         <f>AL27</f>
         <v>0</v>
       </c>
@@ -7037,10 +7040,10 @@
       <c r="M90" s="1">
         <v>-145087000</v>
       </c>
-      <c r="T90" s="23" t="s">
+      <c r="T90" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="U90" s="24">
+      <c r="U90" s="23">
         <f>M25</f>
         <v>1581796000</v>
       </c>
@@ -7085,10 +7088,10 @@
       <c r="M91" s="1">
         <v>-1418857000</v>
       </c>
-      <c r="T91" s="35" t="s">
+      <c r="T91" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="U91" s="36">
+      <c r="U91" s="33">
         <f>U89/U90</f>
         <v>0.14499341255130244</v>
       </c>
@@ -7133,10 +7136,10 @@
       <c r="M92" s="1">
         <v>1837606000</v>
       </c>
-      <c r="T92" s="37" t="s">
+      <c r="T92" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="U92" s="38">
+      <c r="U92" s="35">
         <f>U88*(1-U91)</f>
         <v>0</v>
       </c>
@@ -7181,10 +7184,10 @@
       <c r="M93" s="1">
         <v>-12691000</v>
       </c>
-      <c r="T93" s="63" t="s">
+      <c r="T93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="U93" s="64"/>
+      <c r="U93" s="63"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7226,10 +7229,10 @@
       <c r="M94" s="10">
         <v>216327000</v>
       </c>
-      <c r="T94" s="23" t="s">
+      <c r="T94" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="U94" s="39">
+      <c r="U94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7273,12 +7276,12 @@
       <c r="M95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T95" s="23" t="s">
+      <c r="T95" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="U95" s="40" cm="1">
+      <c r="U95" s="37" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.2650999999999999</v>
+        <v>1.2818000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7321,10 +7324,10 @@
       <c r="M96" s="1">
         <v>48411000</v>
       </c>
-      <c r="T96" s="23" t="s">
+      <c r="T96" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="U96" s="39">
+      <c r="U96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7368,12 +7371,12 @@
       <c r="M97" s="1">
         <v>-670287000</v>
       </c>
-      <c r="T97" s="37" t="s">
+      <c r="T97" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="U97" s="38">
+      <c r="U97" s="35">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>9.541255500000001E-2</v>
+        <v>9.6131490000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7416,10 +7419,10 @@
       <c r="M98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T98" s="63" t="s">
+      <c r="T98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="U98" s="64"/>
+      <c r="U98" s="63"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7461,10 +7464,10 @@
       <c r="M99" s="1">
         <v>-32725000</v>
       </c>
-      <c r="T99" s="23" t="s">
+      <c r="T99" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="U99" s="24">
+      <c r="U99" s="23">
         <f>U86+U87</f>
         <v>43964000</v>
       </c>
@@ -7509,12 +7512,12 @@
       <c r="M100" s="10">
         <v>-654601000</v>
       </c>
-      <c r="T100" s="35" t="s">
+      <c r="T100" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="U100" s="36">
+      <c r="U100" s="33">
         <f>U99/U103</f>
-        <v>9.1971405101906806E-4</v>
+        <v>9.1215900181418807E-4</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7557,12 +7560,12 @@
       <c r="M101" s="1">
         <v>-3611000</v>
       </c>
-      <c r="T101" s="23" t="s">
+      <c r="T101" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="U101" s="41" cm="1">
+      <c r="U101" s="38" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>47757850000</v>
+        <v>48153773360</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7605,12 +7608,12 @@
       <c r="M102" s="10">
         <v>50928000</v>
       </c>
-      <c r="T102" s="35" t="s">
+      <c r="T102" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="U102" s="36">
+      <c r="U102" s="33">
         <f>U101/U103</f>
-        <v>0.99908028594898091</v>
+        <v>0.99908784099818582</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7653,12 +7656,12 @@
       <c r="M103" s="1">
         <v>625050000</v>
       </c>
-      <c r="T103" s="37" t="s">
+      <c r="T103" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="U103" s="42">
+      <c r="U103" s="39">
         <f>U99+U101</f>
-        <v>47801814000</v>
+        <v>48197737360</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7701,10 +7704,10 @@
       <c r="M104" s="11">
         <v>675978000</v>
       </c>
-      <c r="T104" s="63" t="s">
+      <c r="T104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="U104" s="64"/>
+      <c r="U104" s="63"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7755,18 +7758,28 @@
         <f t="shared" ref="M105" si="16">(M106/L106)-1</f>
         <v>-0.52879867945159398</v>
       </c>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
+      <c r="N105" s="67">
+        <v>1794000000</v>
+      </c>
+      <c r="O105" s="67">
+        <v>2073000000</v>
+      </c>
+      <c r="P105" s="67">
+        <v>2260000000</v>
+      </c>
+      <c r="Q105" s="67">
+        <v>2500000000</v>
+      </c>
+      <c r="R105" s="67">
+        <v>2800000000</v>
+      </c>
       <c r="S105" s="15"/>
-      <c r="T105" s="27" t="s">
+      <c r="T105" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="U105" s="28">
+      <c r="U105" s="27">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>9.5324802732522876E-2</v>
+        <v>9.6043802796038705E-2</v>
       </c>
       <c r="V105" s="15"/>
       <c r="AH105" s="15"/>
@@ -7780,10 +7793,10 @@
       <c r="AP105" s="15"/>
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
-      <c r="AS105" s="27" t="s">
+      <c r="AS105" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AT105" s="28">
+      <c r="AT105" s="27">
         <f>(AT100*AT92)+(AT102*AT97)</f>
         <v>0</v>
       </c>
@@ -7828,35 +7841,35 @@
       <c r="M106" s="1">
         <v>448169000</v>
       </c>
-      <c r="N106" s="43">
+      <c r="N106" s="40">
         <f>M106*(1+$U$106)</f>
-        <v>501442521.73046327</v>
-      </c>
-      <c r="O106" s="43">
+        <v>502839176.44028229</v>
+      </c>
+      <c r="O106" s="40">
         <f t="shared" ref="O106:R106" si="17">N106*(1+$U$106)</f>
-        <v>561048628.08316982</v>
-      </c>
-      <c r="P106" s="43">
+        <v>564178328.62857842</v>
+      </c>
+      <c r="P106" s="40">
         <f t="shared" si="17"/>
-        <v>627740068.76745486</v>
-      </c>
-      <c r="Q106" s="43">
+        <v>632999975.75256062</v>
+      </c>
+      <c r="Q106" s="40">
         <f t="shared" si="17"/>
-        <v>702359072.30086648</v>
-      </c>
-      <c r="R106" s="43">
+        <v>710216874.64803731</v>
+      </c>
+      <c r="R106" s="40">
         <f t="shared" si="17"/>
-        <v>785847982.2897507</v>
-      </c>
-      <c r="S106" s="44" t="s">
+        <v>796853125.36567748</v>
+      </c>
+      <c r="S106" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="T106" s="45" t="s">
+      <c r="T106" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="U106" s="46">
+      <c r="U106" s="43">
         <f>(SUM(N4:R4)/5)</f>
-        <v>0.11886926969617106</v>
+        <v>0.12198562694046737</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7873,139 +7886,139 @@
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
-      <c r="N107" s="44"/>
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="44"/>
-      <c r="R107" s="47">
-        <f>R106*(1+U107)/(U108-U107)</f>
-        <v>11453913136.602093</v>
-      </c>
-      <c r="S107" s="48" t="s">
+      <c r="N107" s="41"/>
+      <c r="O107" s="41"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="68">
+        <f>R105*(1+U107)/(U108-U107)</f>
+        <v>40397612276.464836</v>
+      </c>
+      <c r="S107" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="T107" s="49" t="s">
+      <c r="T107" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="U107" s="50">
+      <c r="U107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N108" s="47">
+      <c r="N108" s="44">
         <f t="shared" ref="N108:P108" si="18">N107+N106</f>
-        <v>501442521.73046327</v>
-      </c>
-      <c r="O108" s="47">
+        <v>502839176.44028229</v>
+      </c>
+      <c r="O108" s="44">
         <f t="shared" si="18"/>
-        <v>561048628.08316982</v>
-      </c>
-      <c r="P108" s="47">
+        <v>564178328.62857842</v>
+      </c>
+      <c r="P108" s="44">
         <f t="shared" si="18"/>
-        <v>627740068.76745486</v>
-      </c>
-      <c r="Q108" s="47">
+        <v>632999975.75256062</v>
+      </c>
+      <c r="Q108" s="44">
         <f>Q107+Q106</f>
-        <v>702359072.30086648</v>
-      </c>
-      <c r="R108" s="47">
-        <f>R107+R106</f>
-        <v>12239761118.891844</v>
-      </c>
-      <c r="S108" s="48" t="s">
+        <v>710216874.64803731</v>
+      </c>
+      <c r="R108" s="68">
+        <f>R107+R105</f>
+        <v>43197612276.464836</v>
+      </c>
+      <c r="S108" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="T108" s="51" t="s">
+      <c r="T108" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="U108" s="52">
+      <c r="U108" s="49">
         <f>U105</f>
-        <v>9.5324802732522876E-2</v>
+        <v>9.6043802796038705E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="65" t="s">
+      <c r="N109" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="O109" s="66"/>
+      <c r="O109" s="59"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N110" s="53" t="s">
+      <c r="N110" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="O110" s="41">
+      <c r="O110" s="38">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>9654618783.7162971</v>
+        <v>29211196747.963943</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N111" s="53" t="s">
+      <c r="N111" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="O111" s="41">
+      <c r="O111" s="38">
         <f>M40</f>
         <v>3023729000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N112" s="53" t="s">
+      <c r="N112" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="O112" s="41">
+      <c r="O112" s="38">
         <f>U99</f>
         <v>43964000</v>
       </c>
     </row>
     <row r="113" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N113" s="53" t="s">
+      <c r="N113" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="O113" s="41">
+      <c r="O113" s="38">
         <f>O110+O111-O112</f>
-        <v>12634383783.716297</v>
+        <v>32190961747.963943</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N114" s="53" t="s">
+      <c r="N114" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="O114" s="54">
+      <c r="O114" s="51">
         <f>M34*(1+(S16*4))</f>
         <v>317011466.28182238</v>
       </c>
     </row>
     <row r="115" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N115" s="55" t="s">
+      <c r="N115" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="O115" s="56">
+      <c r="O115" s="53">
         <f>O113/O114</f>
-        <v>39.854658671823444</v>
+        <v>101.54510221830986</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N116" s="53" t="s">
+      <c r="N116" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="O116" s="57" cm="1">
+      <c r="O116" s="54" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>155.87</v>
+        <v>156.19999999999999</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N117" s="58" t="s">
+      <c r="N117" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="O117" s="59">
+      <c r="O117" s="56">
         <f>O115/O116-1</f>
-        <v>-0.74430834238901999</v>
+        <v>-0.34990331486357318</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N118" s="58" t="s">
+      <c r="N118" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="O118" s="60" t="str">
+      <c r="O118" s="57" t="str">
         <f>IF(O115&gt;O116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -8044,7 +8057,7 @@
     <hyperlink ref="L74" r:id="rId22" tooltip="https://www.sec.gov/Archives/edgar/data/1596532/000159653222000026/0001596532-22-000026-index.htm" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="M36" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1596532/000159653223000016/0001596532-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="M74" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1596532/000159653223000016/0001596532-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N1" r:id="rId25" display="https://finbox.com/NASDAQGS:ANET/explorer/revenue_proj" xr:uid="{E2AF0D85-98FD-E14D-B06B-326610703AE9}"/>
+    <hyperlink ref="N1" r:id="rId25" display="https://finbox.com/NYSE:ANET/explorer/revenue_proj" xr:uid="{E2AF0D85-98FD-E14D-B06B-326610703AE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId26"/>

--- a/Technology/Hardware/Arista Networks.xlsx
+++ b/Technology/Hardware/Arista Networks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6C3A7-8946-E14E-9E68-93FDAAFFDF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7853F561-42C1-0C48-B277-23D2A2DAE2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1005,6 +1005,17 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,17 +1034,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2281,13 +2281,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>171.44</v>
-    <v>89.114999999999995</v>
-    <v>1.2818000000000001</v>
-    <v>14.98</v>
-    <v>0.106076</v>
-    <v>0.45</v>
-    <v>2.8810000000000003E-3</v>
+    <v>178.36</v>
+    <v>91.31</v>
+    <v>1.2322</v>
+    <v>1.73</v>
+    <v>1.1417999999999999E-2</v>
     <v>USD</v>
     <v>Arista Networks, Inc. is a supplier of cloud networking solutions that use software to address the needs of Internet companies, cloud service providers and enterprises. The Company cloud networking solutions consist of its Extensible Operating System (EOS), a set of network applications and its Gigabit Ethernet switching and routing platforms. Its cognitive single-tier Spline campus network extends EOS across the data center and campus wired and wireless workspace. The Company’s CloudVision is a network-wide approach for workload orchestration and automation, leverages EOS and Cognitive WiFi features, to deliver cloud networking solutions to its enterprise customers. The Company sells its products through both its direct sales force and its channel partners. Its end customers span a range of industries and include large Internet companies, service providers, financial services organizations, government agencies, media and entertainment companies and other cloud service providers.</v>
     <v>3612</v>
@@ -2295,25 +2293,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5453 Great America Pkwy, SANTA CLARA, CA, 95054 US</v>
-    <v>156.76</v>
+    <v>153.38999999999999</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45071.999391503909</v>
+    <v>45099.999299282033</v>
     <v>0</v>
-    <v>150.63249999999999</v>
-    <v>48153773360</v>
+    <v>149.72</v>
+    <v>47241256272</v>
     <v>ARISTA NETWORKS, INC.</v>
     <v>ARISTA NETWORKS, INC.</v>
-    <v>153.22</v>
-    <v>32.493699999999997</v>
-    <v>141.22</v>
-    <v>156.19999999999999</v>
-    <v>156.65</v>
+    <v>150.97999999999999</v>
+    <v>31.878</v>
+    <v>151.51</v>
+    <v>153.24</v>
     <v>308282800</v>
     <v>ANET</v>
     <v>ARISTA NETWORKS, INC. (XNYS:ANET)</v>
-    <v>8138364</v>
-    <v>3253534</v>
+    <v>661</v>
+    <v>3935722</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2345,8 +2342,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2367,7 +2362,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2384,7 +2378,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2395,16 +2389,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2470,19 +2461,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2527,9 +2512,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2537,9 +2519,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2901,10 +2880,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M123" sqref="M123"/>
+      <selection pane="bottomRight" activeCell="O125" sqref="O125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3672,7 +3651,7 @@
         <f>M22/(M72+M56+M61)</f>
         <v>0.30977138146417776</v>
       </c>
-      <c r="V13" s="66">
+      <c r="V13" s="60">
         <f>M67/M72</f>
         <v>0.38674981886356846</v>
       </c>
@@ -3820,17 +3799,17 @@
         <f>(M35+L35+K35+J35+I35)/5</f>
         <v>4.3644380616636029E-4</v>
       </c>
-      <c r="T16" s="64">
+      <c r="T16" s="58">
         <f>U101/M3</f>
-        <v>10.990725002339483</v>
-      </c>
-      <c r="U16" s="64">
+        <v>10.782450059913588</v>
+      </c>
+      <c r="U16" s="58">
         <f>U101/M28</f>
-        <v>35.604950852011839</v>
-      </c>
-      <c r="V16" s="65">
+        <v>34.930234753919933</v>
+      </c>
+      <c r="V16" s="59">
         <f>U101/M106</f>
-        <v>107.44556932764203</v>
+        <v>105.40946891016559</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6685,10 +6664,10 @@
       <c r="M83" s="1">
         <v>-638948000</v>
       </c>
-      <c r="T83" s="60" t="s">
+      <c r="T83" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="U83" s="61"/>
+      <c r="U83" s="66"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6730,10 +6709,10 @@
       <c r="M84" s="1">
         <v>31436000</v>
       </c>
-      <c r="T84" s="62" t="s">
+      <c r="T84" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="U84" s="63"/>
+      <c r="U84" s="68"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7184,10 +7163,10 @@
       <c r="M93" s="1">
         <v>-12691000</v>
       </c>
-      <c r="T93" s="62" t="s">
+      <c r="T93" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="U93" s="63"/>
+      <c r="U93" s="68"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7281,7 +7260,7 @@
       </c>
       <c r="U95" s="37" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.2818000000000001</v>
+        <v>1.2322</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7376,7 +7355,7 @@
       </c>
       <c r="U97" s="35">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>9.6131490000000014E-2</v>
+        <v>9.3996209999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7419,10 +7398,10 @@
       <c r="M98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T98" s="62" t="s">
+      <c r="T98" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="U98" s="63"/>
+      <c r="U98" s="68"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7517,7 +7496,7 @@
       </c>
       <c r="U100" s="33">
         <f>U99/U103</f>
-        <v>9.1215900181418807E-4</v>
+        <v>9.2976197947487065E-4</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7565,7 +7544,7 @@
       </c>
       <c r="U101" s="38" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>48153773360</v>
+        <v>47241256272</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7613,7 +7592,7 @@
       </c>
       <c r="U102" s="33">
         <f>U101/U103</f>
-        <v>0.99908784099818582</v>
+        <v>0.99907023802052508</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7661,7 +7640,7 @@
       </c>
       <c r="U103" s="39">
         <f>U99+U101</f>
-        <v>48197737360</v>
+        <v>47285220272</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7704,10 +7683,10 @@
       <c r="M104" s="11">
         <v>675978000</v>
       </c>
-      <c r="T104" s="62" t="s">
+      <c r="T104" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="U104" s="63"/>
+      <c r="U104" s="68"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7758,19 +7737,19 @@
         <f t="shared" ref="M105" si="16">(M106/L106)-1</f>
         <v>-0.52879867945159398</v>
       </c>
-      <c r="N105" s="67">
+      <c r="N105" s="61">
         <v>1794000000</v>
       </c>
-      <c r="O105" s="67">
+      <c r="O105" s="61">
         <v>2073000000</v>
       </c>
-      <c r="P105" s="67">
+      <c r="P105" s="61">
         <v>2260000000</v>
       </c>
-      <c r="Q105" s="67">
+      <c r="Q105" s="61">
         <v>2500000000</v>
       </c>
-      <c r="R105" s="67">
+      <c r="R105" s="61">
         <v>2800000000</v>
       </c>
       <c r="S105" s="15"/>
@@ -7779,7 +7758,7 @@
       </c>
       <c r="U105" s="27">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>9.6043802796038705E-2</v>
+        <v>9.390881589772726E-2</v>
       </c>
       <c r="V105" s="15"/>
       <c r="AH105" s="15"/>
@@ -7890,9 +7869,9 @@
       <c r="O107" s="41"/>
       <c r="P107" s="41"/>
       <c r="Q107" s="41"/>
-      <c r="R107" s="68">
+      <c r="R107" s="62">
         <f>R105*(1+U107)/(U108-U107)</f>
-        <v>40397612276.464836</v>
+        <v>41649242736.366005</v>
       </c>
       <c r="S107" s="45" t="s">
         <v>148</v>
@@ -7921,9 +7900,9 @@
         <f>Q107+Q106</f>
         <v>710216874.64803731</v>
       </c>
-      <c r="R108" s="68">
+      <c r="R108" s="62">
         <f>R107+R105</f>
-        <v>43197612276.464836</v>
+        <v>44449242736.366005</v>
       </c>
       <c r="S108" s="45" t="s">
         <v>144</v>
@@ -7933,14 +7912,14 @@
       </c>
       <c r="U108" s="49">
         <f>U105</f>
-        <v>9.6043802796038705E-2</v>
+        <v>9.390881589772726E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="58" t="s">
+      <c r="N109" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="O109" s="59"/>
+      <c r="O109" s="64"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="N110" s="50" t="s">
@@ -7948,7 +7927,7 @@
       </c>
       <c r="O110" s="38">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>29211196747.963943</v>
+        <v>30287190996.611889</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7975,7 +7954,7 @@
       </c>
       <c r="O113" s="38">
         <f>O110+O111-O112</f>
-        <v>32190961747.963943</v>
+        <v>33266955996.611889</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7993,7 +7972,7 @@
       </c>
       <c r="O115" s="53">
         <f>O113/O114</f>
-        <v>101.54510221830986</v>
+        <v>104.93928307008822</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -8002,7 +7981,7 @@
       </c>
       <c r="O116" s="54" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>156.19999999999999</v>
+        <v>153.24</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -8011,7 +7990,7 @@
       </c>
       <c r="O117" s="56">
         <f>O115/O116-1</f>
-        <v>-0.34990331486357318</v>
+        <v>-0.3151965343899229</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Arista Networks.xlsx
+++ b/Technology/Hardware/Arista Networks.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7853F561-42C1-0C48-B277-23D2A2DAE2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2BD87D-C8DB-FB48-A52E-C1162C595819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,19 +547,47 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -725,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -855,38 +880,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -894,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -933,10 +932,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -953,57 +948,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,22 +964,71 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1073,12 +1070,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1086,20 +1080,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2400" b="1"/>
-              <a:t>ANET</a:t>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Arista Networks</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.46168928222815125"/>
-          <c:y val="2.2454709638262182E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1113,12 +1099,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1136,10 +1119,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4485950413223145E-2"/>
-          <c:y val="0.10428179326493728"/>
-          <c:w val="0.8779107438016529"/>
-          <c:h val="0.76494966094513572"/>
+          <c:x val="8.9475083056478402E-2"/>
+          <c:y val="0.14450727756494433"/>
+          <c:w val="0.84275083056478395"/>
+          <c:h val="0.66183865473363146"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1161,15 +1144,83 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$M$3</c:f>
@@ -1217,7 +1268,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0090-2946-A015-E2C358EE910B}"/>
+              <c16:uniqueId val="{00000000-BAA5-8F48-9544-790D86808E2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1226,73 +1277,141 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$M$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>45336000</c:v>
+                  <c:v>34035000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41811000</c:v>
+                  <c:v>21349000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70438000</c:v>
+                  <c:v>42460000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137809000</c:v>
+                  <c:v>86850000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162832000</c:v>
+                  <c:v>121102000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>265110000</c:v>
+                  <c:v>184189000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>498180000</c:v>
+                  <c:v>423201000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>319173000</c:v>
+                  <c:v>328115000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>946263000</c:v>
+                  <c:v>859867000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>810592000</c:v>
+                  <c:v>634557000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>988428000</c:v>
+                  <c:v>840854000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1657263000</c:v>
+                  <c:v>1352446000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0090-2946-A015-E2C358EE910B}"/>
+              <c16:uniqueId val="{00000001-BAA5-8F48-9544-790D86808E2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1301,28 +1420,96 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$M$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$M$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1367,7 +1554,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0090-2946-A015-E2C358EE910B}"/>
+              <c16:uniqueId val="{00000002-BAA5-8F48-9544-790D86808E2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1379,13 +1566,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1434861296"/>
-        <c:axId val="1434851552"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1434156960"/>
+        <c:axId val="1344800384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1434861296"/>
+        <c:axId val="1434156960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1586,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1413,12 +1600,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1428,7 +1612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1434851552"/>
+        <c:crossAx val="1344800384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1436,7 +1620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1434851552"/>
+        <c:axId val="1344800384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,7 +1630,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1474,10 +1658,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1487,7 +1668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1434861296"/>
+        <c:crossAx val="1434156960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,10 +1686,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34847306566018088"/>
-          <c:y val="0.93161825643439145"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="4.1844359447662363E-2"/>
+          <c:x val="0.33967018076228844"/>
+          <c:y val="0.90473138090805172"/>
+          <c:w val="0.31534402385748295"/>
+          <c:h val="6.0090894255158997E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1526,10 +1707,7 @@
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1550,7 +1728,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1618,33 +1796,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1659,7 +1831,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1667,7 +1839,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1675,17 +1847,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1694,9 +1863,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1719,35 +1887,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1756,33 +1924,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1798,21 +1965,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1846,17 +2008,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1865,14 +2027,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1884,26 +2046,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1917,17 +2073,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1936,17 +2091,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1955,17 +2110,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1974,27 +2128,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2002,11 +2153,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2014,17 +2173,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2033,12 +2192,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2047,14 +2203,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2063,10 +2219,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -2075,7 +2228,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2096,10 +2249,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -2108,14 +2258,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2125,22 +2269,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5258584-A0A6-11A6-788A-2B8B483692FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C16C6A-D897-6D68-5580-9D70CD925607}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,6 +2303,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.857E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2282,10 +2480,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>178.36</v>
-    <v>91.31</v>
-    <v>1.2322</v>
-    <v>1.73</v>
-    <v>1.1417999999999999E-2</v>
+    <v>98.204499999999996</v>
+    <v>1.2396</v>
+    <v>2.37</v>
+    <v>1.3802000000000002E-2</v>
+    <v>-0.14000000000000001</v>
+    <v>-8.0420000000000003E-4</v>
     <v>USD</v>
     <v>Arista Networks, Inc. is a supplier of cloud networking solutions that use software to address the needs of Internet companies, cloud service providers and enterprises. The Company cloud networking solutions consist of its Extensible Operating System (EOS), a set of network applications and its Gigabit Ethernet switching and routing platforms. Its cognitive single-tier Spline campus network extends EOS across the data center and campus wired and wireless workspace. The Company’s CloudVision is a network-wide approach for workload orchestration and automation, leverages EOS and Cognitive WiFi features, to deliver cloud networking solutions to its enterprise customers. The Company sells its products through both its direct sales force and its channel partners. Its end customers span a range of industries and include large Internet companies, service providers, financial services organizations, government agencies, media and entertainment companies and other cloud service providers.</v>
     <v>3612</v>
@@ -2293,24 +2493,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5453 Great America Pkwy, SANTA CLARA, CA, 95054 US</v>
-    <v>153.38999999999999</v>
+    <v>175.56</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45099.999299282033</v>
+    <v>45132.99401256875</v>
     <v>0</v>
-    <v>149.72</v>
-    <v>47241256272</v>
+    <v>172.55070000000001</v>
+    <v>53668952652</v>
     <v>ARISTA NETWORKS, INC.</v>
     <v>ARISTA NETWORKS, INC.</v>
-    <v>150.97999999999999</v>
-    <v>31.878</v>
-    <v>151.51</v>
-    <v>153.24</v>
+    <v>173.29</v>
+    <v>36.215299999999999</v>
+    <v>171.72</v>
+    <v>174.09</v>
+    <v>173.95</v>
     <v>308282800</v>
     <v>ANET</v>
     <v>ARISTA NETWORKS, INC. (XNYS:ANET)</v>
-    <v>661</v>
-    <v>3935722</v>
+    <v>2654514</v>
+    <v>2690851</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2342,6 +2543,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2362,6 +2565,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2378,7 +2582,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2389,13 +2593,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2461,13 +2668,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2512,6 +2725,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2519,6 +2735,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2880,10 +3099,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O125" sqref="O125"/>
+      <selection pane="bottomRight" activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2933,19 +3152,19 @@
       <c r="M1" s="8">
         <v>2022</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="26">
         <v>2023</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="26">
         <v>2024</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="26">
         <v>2025</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="26">
         <v>2026</v>
       </c>
-      <c r="R1" s="28">
+      <c r="R1" s="26">
         <v>2027</v>
       </c>
     </row>
@@ -2954,46 +3173,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -3043,37 +3262,37 @@
       <c r="M3" s="1">
         <v>4381310000</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="27">
         <v>5532000000</v>
       </c>
-      <c r="O3" s="29">
-        <v>6140000000</v>
-      </c>
-      <c r="P3" s="29">
-        <v>6817000000</v>
-      </c>
-      <c r="Q3" s="29">
-        <v>7397000000</v>
-      </c>
-      <c r="R3" s="29">
-        <v>7708000000</v>
+      <c r="O3" s="27">
+        <v>6148000000</v>
+      </c>
+      <c r="P3" s="27">
+        <v>6892000000</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>7591000000</v>
+      </c>
+      <c r="R3" s="27">
+        <v>7816000000</v>
       </c>
       <c r="S3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="U3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="V3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="V3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3126,19 +3345,19 @@
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1099060014461315</v>
+        <v>0.11135213304410696</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11026058631921831</v>
+        <v>0.12101496421600522</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>8.5081414111779274E-2</v>
+        <v>0.1014219384793964</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>4.2044071921049087E-2</v>
+        <v>2.9640363588460117E-2</v>
       </c>
       <c r="S4" s="17">
         <f>(M4+L4+K4)/3</f>
@@ -3153,7 +3372,7 @@
         <v>0.22383153679403309</v>
       </c>
       <c r="V4" s="17">
-        <f>(M105+L105+K105)/3</f>
+        <f>(M106+L106+K106)/3</f>
         <v>-0.14917320382335106</v>
       </c>
       <c r="AH4" s="16"/>
@@ -3248,16 +3467,16 @@
         <v>2675696000</v>
       </c>
       <c r="S6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="U6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="V6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3313,7 +3532,7 @@
         <v>0.30869999999999997</v>
       </c>
       <c r="V7" s="20">
-        <f>M106/M3</f>
+        <f>M107/M3</f>
         <v>0.10229109558556687</v>
       </c>
     </row>
@@ -3360,7 +3579,7 @@
     </row>
     <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3415,16 +3634,16 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="S9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="U9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="V9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
@@ -3571,21 +3790,21 @@
         <v>420196000</v>
       </c>
       <c r="S12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="T12" s="19" t="s">
+      <c r="U12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="V12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="V12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3651,7 +3870,7 @@
         <f>M22/(M72+M56+M61)</f>
         <v>0.30977138146417776</v>
       </c>
-      <c r="V13" s="60">
+      <c r="V13" s="35">
         <f>M67/M72</f>
         <v>0.38674981886356846</v>
       </c>
@@ -3666,40 +3885,40 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -3743,16 +3962,16 @@
         <v>1148590000</v>
       </c>
       <c r="S15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="T15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="T15" s="19" t="s">
+      <c r="U15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="V15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3795,21 +4014,21 @@
       <c r="M16" s="1">
         <v>2854204000</v>
       </c>
-      <c r="S16" s="30">
+      <c r="S16" s="28">
         <f>(M35+L35+K35+J35+I35)/5</f>
         <v>4.3644380616636029E-4</v>
       </c>
-      <c r="T16" s="58">
+      <c r="T16" s="33">
         <f>U101/M3</f>
-        <v>10.782450059913588</v>
-      </c>
-      <c r="U16" s="58">
+        <v>12.2495218672041</v>
+      </c>
+      <c r="U16" s="33">
         <f>U101/M28</f>
-        <v>34.930234753919933</v>
-      </c>
-      <c r="V16" s="59">
-        <f>U101/M106</f>
-        <v>105.40946891016559</v>
+        <v>39.682880242168636</v>
+      </c>
+      <c r="V16" s="34">
+        <f>U101/M107</f>
+        <v>119.75159516164661</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3850,7 +4069,7 @@
         <v>7215000</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>7215000</v>
       </c>
     </row>
     <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -3894,7 +4113,16 @@
         <v>75467000</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3937,14 +4165,41 @@
       <c r="M19" s="10">
         <v>1657263000</v>
       </c>
-      <c r="S19" s="31">
+      <c r="N19" s="40">
+        <v>2337000000</v>
+      </c>
+      <c r="O19" s="40">
+        <v>2514000000</v>
+      </c>
+      <c r="P19" s="40">
+        <v>2662000000</v>
+      </c>
+      <c r="Q19" s="40">
+        <v>3359000000</v>
+      </c>
+      <c r="R19" s="40">
+        <v>3700000000</v>
+      </c>
+      <c r="S19" s="29">
         <f>M40-M56-M61</f>
         <v>2979765000</v>
       </c>
+      <c r="T19" s="33">
+        <f>U101/N3</f>
+        <v>9.7015460325379603</v>
+      </c>
+      <c r="U19" s="33">
+        <f>U101/N28</f>
+        <v>28.978916118790497</v>
+      </c>
+      <c r="V19" s="34">
+        <f>U101/N106</f>
+        <v>29.915804153846153</v>
+      </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3988,18 +4243,30 @@
         <v>0.21939027278828305</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" ref="M20" si="5">(M19/L19)-1</f>
+        <f t="shared" ref="M20:R20" si="5">(M19/L19)-1</f>
         <v>0.67666537168109353</v>
       </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
+      <c r="N20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.41015638435178969</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="5"/>
+        <v>7.5738125802310652E-2</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="5"/>
+        <v>5.8870326173428689E-2</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.26183320811419986</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10151830902054182</v>
+      </c>
       <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -4008,7 +4275,7 @@
       <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
     </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4047,6 +4314,32 @@
       </c>
       <c r="M21" s="2">
         <v>0.37830000000000003</v>
+      </c>
+      <c r="N21" s="41">
+        <f>N19/N3</f>
+        <v>0.42245119305856832</v>
+      </c>
+      <c r="O21" s="41">
+        <f t="shared" ref="O21:R21" si="6">O19/O3</f>
+        <v>0.40891346779440468</v>
+      </c>
+      <c r="P21" s="41">
+        <f t="shared" si="6"/>
+        <v>0.38624492164828789</v>
+      </c>
+      <c r="Q21" s="41">
+        <f t="shared" si="6"/>
+        <v>0.44249769463838756</v>
+      </c>
+      <c r="R21" s="41">
+        <f t="shared" si="6"/>
+        <v>0.47338792221084952</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4089,6 +4382,14 @@
       <c r="M22" s="10">
         <v>1527106000</v>
       </c>
+      <c r="U22" s="38">
+        <f>M98/U101</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="39">
+        <f>M107/U101</f>
+        <v>8.350619452293314E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -4335,10 +4636,25 @@
       <c r="M28" s="11">
         <v>1352446000</v>
       </c>
+      <c r="N28" s="42">
+        <v>1852000000</v>
+      </c>
+      <c r="O28" s="42">
+        <v>2039000000</v>
+      </c>
+      <c r="P28" s="42">
+        <v>2273000000</v>
+      </c>
+      <c r="Q28" s="42">
+        <v>2705000000</v>
+      </c>
+      <c r="R28" s="42">
+        <v>3000000000</v>
+      </c>
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4354,42 +4670,57 @@
         <v>1.0454545454545454</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:K29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:K29" si="7">(F28/E28)-1</f>
         <v>0.39438111686816346</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.52094102492114081</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2976453534141563</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.22468283392525068</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6206269143440561</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.26202889516634553</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" ref="L29" si="7">(L28/K28)-1</f>
+        <f t="shared" ref="L29" si="8">(L28/K28)-1</f>
         <v>0.32510397017131631</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" ref="M29" si="8">(M28/L28)-1</f>
+        <f t="shared" ref="M29:R29" si="9">(M28/L28)-1</f>
         <v>0.60841953537712845</v>
       </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="N29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.36937075491368976</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.1009719222462202</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.11476213830308968</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.19005719313682357</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.10905730129390023</v>
+      </c>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
@@ -4442,6 +4773,26 @@
       <c r="M30" s="2">
         <v>0.30869999999999997</v>
       </c>
+      <c r="N30" s="43">
+        <f>N28/N3</f>
+        <v>0.33477946493130872</v>
+      </c>
+      <c r="O30" s="43">
+        <f t="shared" ref="O30:R30" si="10">O28/O3</f>
+        <v>0.33165256994144438</v>
+      </c>
+      <c r="P30" s="43">
+        <f t="shared" si="10"/>
+        <v>0.32980266976204292</v>
+      </c>
+      <c r="Q30" s="43">
+        <f t="shared" si="10"/>
+        <v>0.35634303780793042</v>
+      </c>
+      <c r="R30" s="43">
+        <f t="shared" si="10"/>
+        <v>0.38382804503582396</v>
+      </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -4483,6 +4834,22 @@
       <c r="M31" s="12">
         <v>4.41</v>
       </c>
+      <c r="N31" s="44">
+        <v>6.01</v>
+      </c>
+      <c r="O31" s="44">
+        <v>6.62</v>
+      </c>
+      <c r="P31" s="44">
+        <v>7.37</v>
+      </c>
+      <c r="Q31" s="44">
+        <v>8.77</v>
+      </c>
+      <c r="R31" s="44">
+        <f>R28/M34</f>
+        <v>9.4799010298332487</v>
+      </c>
     </row>
     <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -4609,7 +4976,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="21">
@@ -4617,43 +4984,43 @@
         <v>0.49633801524440951</v>
       </c>
       <c r="D35" s="21">
-        <f t="shared" ref="D35:K35" si="9">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:K35" si="11">(D34-C34)/C34</f>
         <v>-0.33170180145649675</v>
       </c>
       <c r="E35" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.9666446443738895E-3</v>
       </c>
       <c r="F35" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.30813335775783113</v>
       </c>
       <c r="G35" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.5360238618700199E-2</v>
       </c>
       <c r="H35" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.8596596651279674E-2</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.3639793864036366E-2</v>
       </c>
       <c r="J35" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.3293256147642375E-4</v>
       </c>
       <c r="K35" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.7482906564126658E-2</v>
       </c>
       <c r="L35" s="21">
-        <f t="shared" ref="L35" si="10">(L34-K34)/K34</f>
+        <f t="shared" ref="L35" si="12">(L34-K34)/K34</f>
         <v>0</v>
       </c>
       <c r="M35" s="21">
-        <f t="shared" ref="M35" si="11">(M34-L34)/L34</f>
+        <f t="shared" ref="M35" si="13">(M34-L34)/L34</f>
         <v>-4.4076008305543321E-3</v>
       </c>
       <c r="N35" s="21"/>
@@ -4676,40 +5043,40 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -4717,40 +5084,40 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4758,7 +5125,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>88655000</v>
@@ -4799,19 +5166,19 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>209426000</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1">
         <v>299910000</v>
@@ -4840,7 +5207,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>88655000</v>
@@ -4881,7 +5248,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>50902000</v>
@@ -4922,7 +5289,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>24181000</v>
@@ -4963,7 +5330,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>13434000</v>
@@ -5004,7 +5371,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>177172000</v>
@@ -5045,7 +5412,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>30546000</v>
@@ -5086,25 +5453,25 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1">
         <v>53684000</v>
@@ -5127,25 +5494,25 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1">
         <v>58610000</v>
@@ -5168,25 +5535,25 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1">
         <v>112294000</v>
@@ -5209,13 +5576,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1">
         <v>36636000</v>
@@ -5250,7 +5617,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1">
         <v>1679000</v>
@@ -5291,7 +5658,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>10771000</v>
@@ -5332,7 +5699,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>42996000</v>
@@ -5373,40 +5740,40 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5414,7 +5781,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>220168000</v>
@@ -5455,7 +5822,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>11016000</v>
@@ -5496,10 +5863,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>98793000</v>
@@ -5511,22 +5878,22 @@
         <v>1336000</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -5537,13 +5904,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1">
         <v>4678000</v>
@@ -5578,7 +5945,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>17602000</v>
@@ -5619,7 +5986,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>17746000</v>
@@ -5660,7 +6027,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>46364000</v>
@@ -5701,28 +6068,28 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1">
         <v>97673000</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1">
         <v>83022000</v>
@@ -5742,13 +6109,13 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1">
         <v>46141000</v>
@@ -5783,28 +6150,28 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1">
         <v>254710000</v>
@@ -5824,7 +6191,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>57221000</v>
@@ -5865,7 +6232,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>154894000</v>
@@ -5906,40 +6273,40 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5947,7 +6314,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>201258000</v>
@@ -5988,7 +6355,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>3000</v>
@@ -6029,7 +6396,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>504000</v>
@@ -6070,7 +6437,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>38000</v>
@@ -6111,7 +6478,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>12373000</v>
@@ -6152,7 +6519,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>18910000</v>
@@ -6193,7 +6560,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>220168000</v>
@@ -6234,40 +6601,40 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -6275,40 +6642,40 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6477,54 +6844,54 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:M80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:M80" si="14">B79/B3</f>
         <v>1.4115325210228248E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.4316470880211782E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.8123823444732354E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.7284225808329312E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.408725738457075E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.2279246559632009E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.581924521287388E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.239254167927492E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.201258884326832E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.9133242891514691E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.338963859680187E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.2708893002321226E-2</v>
       </c>
       <c r="N80" s="15"/>
@@ -6664,10 +7031,10 @@
       <c r="M83" s="1">
         <v>-638948000</v>
       </c>
-      <c r="T83" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="U83" s="66"/>
+      <c r="T83" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="U83" s="69"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6709,10 +7076,10 @@
       <c r="M84" s="1">
         <v>31436000</v>
       </c>
-      <c r="T84" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="U84" s="68"/>
+      <c r="T84" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="U84" s="70"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6752,14 +7119,14 @@
         <v>278485000</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T85" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="U85" s="23">
+        <v>91</v>
+      </c>
+      <c r="T85" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="U85" s="46">
         <f>M17</f>
-        <v>0</v>
+        <v>7215000</v>
       </c>
     </row>
     <row r="86" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -6800,12 +7167,12 @@
         <v>43959000</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T86" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="U86" s="23">
+        <v>91</v>
+      </c>
+      <c r="T86" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="U86" s="46">
         <f>M56</f>
         <v>0</v>
       </c>
@@ -6850,10 +7217,10 @@
       <c r="M87" s="10">
         <v>492813000</v>
       </c>
-      <c r="T87" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="U87" s="23">
+      <c r="T87" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="U87" s="46">
         <f>M61</f>
         <v>43964000</v>
       </c>
@@ -6898,70 +7265,70 @@
       <c r="M88" s="1">
         <v>-44644000</v>
       </c>
-      <c r="T88" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="U88" s="33">
+      <c r="T88" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="U88" s="48">
         <f>U85/(U86+U87)</f>
-        <v>0</v>
+        <v>0.16411154581020834</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:M89" si="15">(-1*B88)/B3</f>
+        <v>1.9807219266632342E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="15"/>
+        <v>1.7124420913302449E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="15"/>
+        <v>5.6242110158793435E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="15"/>
+        <v>2.2485644728867705E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="15"/>
+        <v>2.3864869608197795E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="15"/>
+        <v>1.8968850488900225E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="15"/>
+        <v>9.2814542220623908E-3</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="15"/>
+        <v>1.1076667926329701E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="15"/>
+        <v>6.5337706049597086E-3</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="15"/>
+        <v>6.6381533299503951E-3</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="15"/>
+        <v>2.1959018831853194E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="15"/>
+        <v>1.0189646475597482E-2</v>
+      </c>
+      <c r="T89" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:M89" si="13">(-1*B88)/B3</f>
-        <v>1.9807219266632342E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.7124420913302449E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="13"/>
-        <v>5.6242110158793435E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="13"/>
-        <v>2.2485644728867705E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="13"/>
-        <v>2.3864869608197795E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.8968850488900225E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="13"/>
-        <v>9.2814542220623908E-3</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.1076667926329701E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="13"/>
-        <v>6.5337706049597086E-3</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="13"/>
-        <v>6.6381533299503951E-3</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="13"/>
-        <v>2.1959018831853194E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.0189646475597482E-2</v>
-      </c>
-      <c r="T89" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="U89" s="23">
+      <c r="U89" s="46">
         <f>M27</f>
         <v>229350000</v>
       </c>
@@ -6971,10 +7338,10 @@
       <c r="AJ89" s="15"/>
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
-      <c r="AS89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT89" s="25">
+      <c r="AS89" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT89" s="23">
         <f>AL27</f>
         <v>0</v>
       </c>
@@ -6984,25 +7351,25 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1">
         <v>-96821000</v>
@@ -7019,10 +7386,10 @@
       <c r="M90" s="1">
         <v>-145087000</v>
       </c>
-      <c r="T90" s="22" t="s">
+      <c r="T90" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="U90" s="23">
+      <c r="U90" s="46">
         <f>M25</f>
         <v>1581796000</v>
       </c>
@@ -7032,19 +7399,19 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-210019000</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1">
         <v>-439711000</v>
@@ -7067,10 +7434,10 @@
       <c r="M91" s="1">
         <v>-1418857000</v>
       </c>
-      <c r="T91" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="U91" s="33">
+      <c r="T91" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="U91" s="48">
         <f>U89/U90</f>
         <v>0.14499341255130244</v>
       </c>
@@ -7080,16 +7447,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>208200000</v>
@@ -7115,12 +7482,12 @@
       <c r="M92" s="1">
         <v>1837606000</v>
       </c>
-      <c r="T92" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="U92" s="35">
+      <c r="T92" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="U92" s="48">
         <f>U88*(1-U91)</f>
-        <v>0</v>
+        <v>0.14031645274411683</v>
       </c>
     </row>
     <row r="93" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7128,7 +7495,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-9040000</v>
@@ -7149,24 +7516,24 @@
         <v>1740000</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1">
         <v>-12691000</v>
       </c>
-      <c r="T93" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="U93" s="68"/>
+      <c r="T93" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="U93" s="70"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7208,11 +7575,12 @@
       <c r="M94" s="10">
         <v>216327000</v>
       </c>
-      <c r="T94" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="U94" s="36">
-        <v>4.095E-2</v>
+      <c r="T94" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="U94" s="49">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.857E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7223,10 +7591,10 @@
         <v>-55555000</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1">
         <v>-20793000</v>
@@ -7244,23 +7612,23 @@
         <v>-1929000</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T95" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="U95" s="37" cm="1">
+        <v>91</v>
+      </c>
+      <c r="T95" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="U95" s="50" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.2322</v>
+        <v>1.2396</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7271,31 +7639,31 @@
         <v>4203000</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>239315000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1">
         <v>67245000</v>
@@ -7303,10 +7671,10 @@
       <c r="M96" s="1">
         <v>48411000</v>
       </c>
-      <c r="T96" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="U96" s="36">
+      <c r="T96" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="U96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7315,28 +7683,28 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-261000</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1">
         <v>-266142000</v>
@@ -7350,12 +7718,12 @@
       <c r="M97" s="1">
         <v>-670287000</v>
       </c>
-      <c r="T97" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="U97" s="35">
+      <c r="T97" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="U97" s="48">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>9.3996209999999997E-2</v>
+        <v>9.488502800000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7363,45 +7731,45 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T98" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="U98" s="68"/>
+        <v>91</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="T98" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="U98" s="70"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7443,10 +7811,10 @@
       <c r="M99" s="1">
         <v>-32725000</v>
       </c>
-      <c r="T99" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="U99" s="23">
+      <c r="T99" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="U99" s="46">
         <f>U86+U87</f>
         <v>43964000</v>
       </c>
@@ -7491,12 +7859,12 @@
       <c r="M100" s="10">
         <v>-654601000</v>
       </c>
-      <c r="T100" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="U100" s="33">
+      <c r="T100" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="U100" s="48">
         <f>U99/U103</f>
-        <v>9.2976197947487065E-4</v>
+        <v>8.1849958520848636E-4</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7539,12 +7907,12 @@
       <c r="M101" s="1">
         <v>-3611000</v>
       </c>
-      <c r="T101" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="U101" s="38" cm="1">
+      <c r="T101" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="U101" s="51" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>47241256272</v>
+        <v>53668952652</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7587,12 +7955,12 @@
       <c r="M102" s="10">
         <v>50928000</v>
       </c>
-      <c r="T102" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="U102" s="33">
+      <c r="T102" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="U102" s="48">
         <f>U101/U103</f>
-        <v>0.99907023802052508</v>
+        <v>0.99918150041479148</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7635,12 +8003,12 @@
       <c r="M103" s="1">
         <v>625050000</v>
       </c>
-      <c r="T103" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="U103" s="39">
+      <c r="T103" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="U103" s="52">
         <f>U99+U101</f>
-        <v>47285220272</v>
+        <v>53712916652</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7683,82 +8051,92 @@
       <c r="M104" s="11">
         <v>675978000</v>
       </c>
-      <c r="T104" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="U104" s="68"/>
+      <c r="T104" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="U104" s="70"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:L105" si="16">(B22*(1-$U$91))+B77+B88+B81</f>
+        <v>13841292.482722171</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="16"/>
+        <v>33505197.819440685</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="16"/>
+        <v>26673975.746556453</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="16"/>
+        <v>120022441.81044838</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="16"/>
+        <v>201987323.55879015</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="16"/>
+        <v>137998298.44430003</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="16"/>
+        <v>509927657.89267391</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="16"/>
+        <v>341141485.65933919</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="16"/>
+        <v>746838077.99488688</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="16"/>
+        <v>541754429.13245451</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="16"/>
+        <v>769379936.67072117</v>
+      </c>
+      <c r="M105" s="1">
+        <f>(M22*(1-$U$91))+M77+M88+M81</f>
+        <v>414856689.73243093</v>
+      </c>
+      <c r="N105" s="30">
+        <f>M105*(1+$U$106)</f>
+        <v>466802178.60997313</v>
+      </c>
+      <c r="O105" s="30">
+        <f t="shared" ref="O105:R105" si="17">N105*(1+$U$106)</f>
+        <v>525251922.7677356</v>
+      </c>
+      <c r="P105" s="30">
+        <f t="shared" si="17"/>
+        <v>591020340.12081397</v>
+      </c>
+      <c r="Q105" s="30">
+        <f t="shared" si="17"/>
+        <v>665023824.36967111</v>
+      </c>
+      <c r="R105" s="30">
+        <f t="shared" si="17"/>
+        <v>748293513.70353651</v>
+      </c>
+      <c r="S105" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="T105" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>1.3803312629399587</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-0.37670696703487871</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>6.0738208205414459</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.78082894399400282</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.39061392236795467</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:K105" si="14">(H106/G106)-1</f>
-        <v>4.6020941456631004</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.22237275045915617</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.97643384262939481</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.24021649285377233</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" ref="L105" si="15">(L106/K106)-1</f>
-        <v>0.32149556083531317</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" ref="M105" si="16">(M106/L106)-1</f>
-        <v>-0.52879867945159398</v>
-      </c>
-      <c r="N105" s="61">
-        <v>1794000000</v>
-      </c>
-      <c r="O105" s="61">
-        <v>2073000000</v>
-      </c>
-      <c r="P105" s="61">
-        <v>2260000000</v>
-      </c>
-      <c r="Q105" s="61">
-        <v>2500000000</v>
-      </c>
-      <c r="R105" s="61">
-        <v>2800000000</v>
-      </c>
-      <c r="S105" s="15"/>
-      <c r="T105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="U105" s="27">
+      <c r="U105" s="54">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>9.390881589772726E-2</v>
+        <v>9.49222136023085E-2</v>
       </c>
       <c r="V105" s="15"/>
       <c r="AH105" s="15"/>
@@ -7772,232 +8150,262 @@
       <c r="AP105" s="15"/>
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
-      <c r="AS105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT105" s="27">
+      <c r="AS105" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT105" s="25">
         <f>(AT100*AT92)+(AT102*AT97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:M106" si="18">(C107/B107)-1</f>
+        <v>1.3803312629399587</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="18"/>
+        <v>-0.37670696703487871</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="18"/>
+        <v>6.0738208205414459</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="18"/>
+        <v>0.78082894399400282</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="18"/>
+        <v>-0.39061392236795467</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="18"/>
+        <v>4.6020941456631004</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="18"/>
+        <v>-0.22237275045915617</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="18"/>
+        <v>0.97643384262939481</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="18"/>
+        <v>-0.24021649285377233</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="18"/>
+        <v>0.32149556083531317</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="18"/>
+        <v>-0.52879867945159398</v>
+      </c>
+      <c r="N106" s="36">
+        <v>1794000000</v>
+      </c>
+      <c r="O106" s="36">
+        <v>2139000000</v>
+      </c>
+      <c r="P106" s="36">
+        <v>2309000000</v>
+      </c>
+      <c r="Q106" s="36">
+        <v>2792000000</v>
+      </c>
+      <c r="R106" s="36">
+        <v>2875000000</v>
+      </c>
+      <c r="S106" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="T106" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="U106" s="56">
+        <f>(SUM(N4:R4)/5)</f>
+        <v>0.12521309204642547</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
         <v>9660000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>22994000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>14332000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>101382000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>180544000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>110021000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>616348000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>479289000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>947283000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>719730000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>951120000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>448169000</v>
       </c>
-      <c r="N106" s="40">
-        <f>M106*(1+$U$106)</f>
-        <v>502839176.44028229</v>
-      </c>
-      <c r="O106" s="40">
-        <f t="shared" ref="O106:R106" si="17">N106*(1+$U$106)</f>
-        <v>564178328.62857842</v>
-      </c>
-      <c r="P106" s="40">
-        <f t="shared" si="17"/>
-        <v>632999975.75256062</v>
-      </c>
-      <c r="Q106" s="40">
-        <f t="shared" si="17"/>
-        <v>710216874.64803731</v>
-      </c>
-      <c r="R106" s="40">
-        <f t="shared" si="17"/>
-        <v>796853125.36567748</v>
-      </c>
-      <c r="S106" s="41" t="s">
+      <c r="N107" s="31"/>
+      <c r="O107" s="31"/>
+      <c r="P107" s="31"/>
+      <c r="Q107" s="31"/>
+      <c r="R107" s="37">
+        <f>R106*(1+U107)/(U108-U107)</f>
+        <v>42145047305.863724</v>
+      </c>
+      <c r="S107" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="T106" s="42" t="s">
+      <c r="T107" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="U106" s="43">
-        <f>(SUM(N4:R4)/5)</f>
-        <v>0.12198562694046737</v>
-      </c>
-    </row>
-    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="62">
-        <f>R105*(1+U107)/(U108-U107)</f>
-        <v>41649242736.366005</v>
-      </c>
-      <c r="S107" s="45" t="s">
+      <c r="U107" s="58">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="N108" s="37">
+        <f t="shared" ref="N108:Q108" si="19">N107+N106</f>
+        <v>1794000000</v>
+      </c>
+      <c r="O108" s="37">
+        <f t="shared" si="19"/>
+        <v>2139000000</v>
+      </c>
+      <c r="P108" s="37">
+        <f t="shared" si="19"/>
+        <v>2309000000</v>
+      </c>
+      <c r="Q108" s="37">
+        <f t="shared" si="19"/>
+        <v>2792000000</v>
+      </c>
+      <c r="R108" s="37">
+        <f>R107+R106</f>
+        <v>45020047305.863724</v>
+      </c>
+      <c r="S108" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="T108" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="T107" s="46" t="s">
+      <c r="U108" s="56">
+        <f>U105</f>
+        <v>9.49222136023085E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="N109" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="U107" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N108" s="44">
-        <f t="shared" ref="N108:P108" si="18">N107+N106</f>
-        <v>502839176.44028229</v>
-      </c>
-      <c r="O108" s="44">
-        <f t="shared" si="18"/>
-        <v>564178328.62857842</v>
-      </c>
-      <c r="P108" s="44">
-        <f t="shared" si="18"/>
-        <v>632999975.75256062</v>
-      </c>
-      <c r="Q108" s="44">
-        <f>Q107+Q106</f>
-        <v>710216874.64803731</v>
-      </c>
-      <c r="R108" s="62">
-        <f>R107+R105</f>
-        <v>44449242736.366005</v>
-      </c>
-      <c r="S108" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="T108" s="48" t="s">
+      <c r="O109" s="67"/>
+    </row>
+    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="N110" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="U108" s="49">
-        <f>U105</f>
-        <v>9.390881589772726E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="63" t="s">
+      <c r="O110" s="51">
+        <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
+        <v>35732443843.52002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="N111" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="O109" s="64"/>
-    </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N110" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="O110" s="38">
-        <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>30287190996.611889</v>
-      </c>
-    </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N111" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="O111" s="38">
+      <c r="O111" s="51">
         <f>M40</f>
         <v>3023729000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N112" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="O112" s="38">
+      <c r="N112" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="O112" s="51">
         <f>U99</f>
         <v>43964000</v>
       </c>
     </row>
     <row r="113" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N113" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="O113" s="38">
+      <c r="N113" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="O113" s="51">
         <f>O110+O111-O112</f>
-        <v>33266955996.611889</v>
+        <v>38712208843.52002</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N114" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="O114" s="51">
+      <c r="N114" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="O114" s="60">
         <f>M34*(1+(S16*4))</f>
         <v>317011466.28182238</v>
       </c>
     </row>
     <row r="115" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N115" s="52" t="s">
+      <c r="N115" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="O115" s="62">
+        <f>O113/O114</f>
+        <v>122.11611553856214</v>
+      </c>
+    </row>
+    <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="N116" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="O116" s="63" cm="1">
+        <f t="array" ref="O116">_FV(A1,"Price")</f>
+        <v>174.09</v>
+      </c>
+    </row>
+    <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="N117" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="O115" s="53">
-        <f>O113/O114</f>
-        <v>104.93928307008822</v>
-      </c>
-    </row>
-    <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N116" s="50" t="s">
+      <c r="O117" s="64">
+        <f>O115/O116-1</f>
+        <v>-0.29854606503209757</v>
+      </c>
+    </row>
+    <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="N118" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="O116" s="54" cm="1">
-        <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>153.24</v>
-      </c>
-    </row>
-    <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N117" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="O117" s="56">
-        <f>O115/O116-1</f>
-        <v>-0.3151965343899229</v>
-      </c>
-    </row>
-    <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N118" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="O118" s="57" t="str">
+      <c r="O118" s="65" t="str">
         <f>IF(O115&gt;O116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -8037,8 +8445,9 @@
     <hyperlink ref="M36" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1596532/000159653223000016/0001596532-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="M74" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1596532/000159653223000016/0001596532-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="N1" r:id="rId25" display="https://finbox.com/NYSE:ANET/explorer/revenue_proj" xr:uid="{E2AF0D85-98FD-E14D-B06B-326610703AE9}"/>
+    <hyperlink ref="S106" r:id="rId26" xr:uid="{EC4E03D2-F757-CF4E-93AF-531565B67EE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Arista Networks.xlsx
+++ b/Technology/Hardware/Arista Networks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2BD87D-C8DB-FB48-A52E-C1162C595819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1BDFC9-BFF5-E54A-92B8-F3EB52882624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -411,9 +411,6 @@
     <t>3yr FCF Growth</t>
   </si>
   <si>
-    <t>Gross Profit Margin</t>
-  </si>
-  <si>
     <t>EBITDA Margin</t>
   </si>
   <si>
@@ -561,9 +558,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -574,6 +568,18 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +707,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -893,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -928,9 +941,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -942,34 +952,6 @@
     <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -978,55 +960,145 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1083,6 +1155,7 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Arista Networks</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1119,15 +1192,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9475083056478402E-2"/>
-          <c:y val="0.14450727756494433"/>
-          <c:w val="0.84275083056478395"/>
-          <c:h val="0.66183865473363146"/>
+          <c:x val="9.6703150912106128E-2"/>
+          <c:y val="0.14466595310846286"/>
+          <c:w val="0.82502155887230522"/>
+          <c:h val="0.6385512353453896"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1178,10 +1251,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$R$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -1217,16 +1290,31 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$M$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>139848000</c:v>
                 </c:pt>
@@ -1262,13 +1350,28 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4381310000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5532000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6148000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6892000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7591000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7816000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BAA5-8F48-9544-790D86808E2D}"/>
+              <c16:uniqueId val="{00000000-4E62-E64D-91A2-F4B4F2DBB859}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1321,10 +1424,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$R$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -1360,16 +1463,31 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$M$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>34035000</c:v>
                 </c:pt>
@@ -1405,13 +1523,28 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1352446000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1852000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2039000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2273000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2705000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BAA5-8F48-9544-790D86808E2D}"/>
+              <c16:uniqueId val="{00000001-4E62-E64D-91A2-F4B4F2DBB859}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1464,10 +1597,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$R$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -1503,16 +1636,31 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$M$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$R$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>9660000</c:v>
                 </c:pt>
@@ -1548,13 +1696,28 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>448169000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1794000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2139000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2309000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2792000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2875000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BAA5-8F48-9544-790D86808E2D}"/>
+              <c16:uniqueId val="{00000002-4E62-E64D-91A2-F4B4F2DBB859}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1566,13 +1729,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1434156960"/>
-        <c:axId val="1344800384"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="407282176"/>
+        <c:axId val="407284448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1434156960"/>
+        <c:axId val="407282176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +1763,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1612,7 +1775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1344800384"/>
+        <c:crossAx val="407284448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1620,7 +1783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1344800384"/>
+        <c:axId val="407284448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1434156960"/>
+        <c:crossAx val="407282176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1686,10 +1849,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33967018076228844"/>
-          <c:y val="0.90473138090805172"/>
-          <c:w val="0.31534402385748295"/>
-          <c:h val="6.0090894255158997E-2"/>
+          <c:x val="0.34452666770775087"/>
+          <c:y val="0.88574696742744852"/>
+          <c:w val="0.31627802321617776"/>
+          <c:h val="6.0833954530690265E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1796,7 +1959,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2034,7 +2197,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2269,22 +2431,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C16C6A-D897-6D68-5580-9D70CD925607}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E5C2F5-8DEC-E162-8AD5-EF37FB0DB8F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,38 +2474,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.857E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2479,13 +2641,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>178.36</v>
-    <v>98.204499999999996</v>
-    <v>1.2396</v>
-    <v>2.37</v>
-    <v>1.3802000000000002E-2</v>
-    <v>-0.14000000000000001</v>
-    <v>-8.0420000000000003E-4</v>
+    <v>198.7</v>
+    <v>104.06</v>
+    <v>1.1405000000000001</v>
+    <v>-2.72</v>
+    <v>-1.4006000000000001E-2</v>
+    <v>-1.1000000000000001</v>
+    <v>-5.7450000000000001E-3</v>
     <v>USD</v>
     <v>Arista Networks, Inc. is a supplier of cloud networking solutions that use software to address the needs of Internet companies, cloud service providers and enterprises. The Company cloud networking solutions consist of its Extensible Operating System (EOS), a set of network applications and its Gigabit Ethernet switching and routing platforms. Its cognitive single-tier Spline campus network extends EOS across the data center and campus wired and wireless workspace. The Company’s CloudVision is a network-wide approach for workload orchestration and automation, leverages EOS and Cognitive WiFi features, to deliver cloud networking solutions to its enterprise customers. The Company sells its products through both its direct sales force and its channel partners. Its end customers span a range of industries and include large Internet companies, service providers, financial services organizations, government agencies, media and entertainment companies and other cloud service providers.</v>
     <v>3612</v>
@@ -2493,25 +2655,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5453 Great America Pkwy, SANTA CLARA, CA, 95054 US</v>
-    <v>175.56</v>
+    <v>197.31</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45132.99401256875</v>
+    <v>45218.995525508595</v>
     <v>0</v>
-    <v>172.55070000000001</v>
-    <v>53668952652</v>
+    <v>190.67</v>
+    <v>59278493288</v>
     <v>ARISTA NETWORKS, INC.</v>
     <v>ARISTA NETWORKS, INC.</v>
-    <v>173.29</v>
-    <v>36.215299999999999</v>
-    <v>171.72</v>
-    <v>174.09</v>
-    <v>173.95</v>
-    <v>308282800</v>
+    <v>195</v>
+    <v>35.853299999999997</v>
+    <v>194.2</v>
+    <v>191.48</v>
+    <v>190.38</v>
+    <v>309580600</v>
     <v>ANET</v>
     <v>ARISTA NETWORKS, INC. (XNYS:ANET)</v>
-    <v>2654514</v>
-    <v>2690851</v>
+    <v>1645980</v>
+    <v>1724295</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -3096,13 +3258,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU118"/>
+  <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O96" sqref="O96"/>
+      <selection pane="bottomRight" activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3152,19 +3314,19 @@
       <c r="M1" s="8">
         <v>2022</v>
       </c>
-      <c r="N1" s="26">
+      <c r="N1" s="25">
         <v>2023</v>
       </c>
-      <c r="O1" s="26">
+      <c r="O1" s="25">
         <v>2024</v>
       </c>
-      <c r="P1" s="26">
+      <c r="P1" s="25">
         <v>2025</v>
       </c>
-      <c r="Q1" s="26">
+      <c r="Q1" s="25">
         <v>2026</v>
       </c>
-      <c r="R1" s="26">
+      <c r="R1" s="25">
         <v>2027</v>
       </c>
     </row>
@@ -3262,19 +3424,19 @@
       <c r="M3" s="1">
         <v>4381310000</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="26">
         <v>5532000000</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="26">
         <v>6148000000</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="26">
         <v>6892000000</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="26">
         <v>7591000000</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="26">
         <v>7816000000</v>
       </c>
       <c r="S3" s="18" t="s">
@@ -3295,47 +3457,47 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="38">
         <f>(C3/B3)-1</f>
         <v>0.38298724329271772</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="38">
         <f>(D3/C3)-1</f>
         <v>0.8676786896095301</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="38">
         <f>(E3/D3)-1</f>
         <v>0.61701880273735954</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="38">
         <f t="shared" ref="F4:R4" si="0">(F3/E3)-1</f>
         <v>0.43397088884551782</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="38">
         <f t="shared" si="0"/>
         <v>0.3481126229866367</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="38">
         <f t="shared" si="0"/>
         <v>0.4578764699995661</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="38">
         <f t="shared" si="0"/>
         <v>0.30688087494365757</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="38">
         <f t="shared" si="0"/>
         <v>0.12054510407094265</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="38">
         <f t="shared" si="0"/>
         <v>-3.8658384722151884E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="38">
         <f t="shared" si="0"/>
         <v>0.27206978863539866</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="38">
         <f t="shared" si="0"/>
         <v>0.48617876912671032</v>
       </c>
@@ -3359,19 +3521,19 @@
         <f t="shared" si="0"/>
         <v>2.9640363588460117E-2</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="63">
         <f>(M4+L4+K4)/3</f>
         <v>0.23986339101331902</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="63">
         <f>(M20+L20+K20)/3</f>
         <v>0.25089335709787719</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="63">
         <f>(M29+L29+K29)/3</f>
         <v>0.22383153679403309</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="63">
         <f>(M106+L106+K106)/3</f>
         <v>-0.14917320382335106</v>
       </c>
@@ -3425,6 +3587,10 @@
       <c r="M5" s="1">
         <v>1705614000</v>
       </c>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
     </row>
     <row r="6" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3466,17 +3632,21 @@
       <c r="M6" s="10">
         <v>2675696000</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="N6" s="27">
+        <f>N3*N7</f>
+        <v>3352392000</v>
+      </c>
+      <c r="S6" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="U6" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="V6" s="75" t="s">
         <v>114</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3519,21 +3689,24 @@
       <c r="M7" s="2">
         <v>0.61070000000000002</v>
       </c>
-      <c r="S7" s="17">
-        <f>M7</f>
-        <v>0.61070000000000002</v>
-      </c>
-      <c r="T7" s="20">
-        <f>M21</f>
-        <v>0.37830000000000003</v>
-      </c>
-      <c r="U7" s="20">
-        <f>M30</f>
-        <v>0.30869999999999997</v>
-      </c>
-      <c r="V7" s="20">
-        <f>M107/M3</f>
-        <v>0.10229109558556687</v>
+      <c r="N7" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="S7" s="63">
+        <f>N7</f>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="T7" s="64">
+        <f>N21</f>
+        <v>0.42245119305856832</v>
+      </c>
+      <c r="U7" s="64">
+        <f>N30</f>
+        <v>0.33477946493130872</v>
+      </c>
+      <c r="V7" s="64">
+        <f>N107/N3</f>
+        <v>0.324295010845987</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3576,6 +3749,10 @@
       <c r="M8" s="1">
         <v>728394000</v>
       </c>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
     </row>
     <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -3691,19 +3868,19 @@
       <c r="M10" s="1">
         <v>93241000</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="63">
         <f>M9</f>
         <v>0.16625027674371365</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="64">
         <f>M13</f>
         <v>9.5906475460535781E-2</v>
       </c>
-      <c r="U10" s="20">
+      <c r="U10" s="64">
         <f>M80</f>
         <v>5.2708893002321226E-2</v>
       </c>
-      <c r="V10" s="20">
+      <c r="V10" s="64">
         <f>M89</f>
         <v>1.0189646475597482E-2</v>
       </c>
@@ -3748,6 +3925,10 @@
       <c r="M11" s="1">
         <v>326955000</v>
       </c>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
     </row>
     <row r="12" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -3790,16 +3971,16 @@
         <v>420196000</v>
       </c>
       <c r="S12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="T12" s="19" t="s">
+      <c r="U12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="V12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="V12" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3858,19 +4039,19 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="S13" s="17">
+      <c r="S13" s="63">
         <f>M28/M72</f>
         <v>0.27681044328280618</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="64">
         <f>M28/M54</f>
         <v>0.19961094605344917</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U13" s="64">
         <f>M22/(M72+M56+M61)</f>
         <v>0.30977138146417776</v>
       </c>
-      <c r="V13" s="35">
+      <c r="V13" s="65">
         <f>M67/M72</f>
         <v>0.38674981886356846</v>
       </c>
@@ -3920,6 +4101,10 @@
       <c r="M14" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
     </row>
     <row r="15" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -3962,16 +4147,16 @@
         <v>1148590000</v>
       </c>
       <c r="S15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="T15" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="T15" s="19" t="s">
+      <c r="U15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="V15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -4014,21 +4199,21 @@
       <c r="M16" s="1">
         <v>2854204000</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="66">
         <f>(M35+L35+K35+J35+I35)/5</f>
         <v>4.3644380616636029E-4</v>
       </c>
-      <c r="T16" s="33">
-        <f>U101/M3</f>
-        <v>12.2495218672041</v>
-      </c>
-      <c r="U16" s="33">
-        <f>U101/M28</f>
-        <v>39.682880242168636</v>
-      </c>
-      <c r="V16" s="34">
-        <f>U101/M107</f>
-        <v>119.75159516164661</v>
+      <c r="T16" s="67">
+        <f>U102/M3</f>
+        <v>13.529855976408882</v>
+      </c>
+      <c r="U16" s="67">
+        <f>U102/M28</f>
+        <v>43.830580509683934</v>
+      </c>
+      <c r="V16" s="68">
+        <f>U102/M107</f>
+        <v>132.26816956996134</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4071,6 +4256,10 @@
       <c r="M17" s="1">
         <v>7215000</v>
       </c>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
     </row>
     <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4113,16 +4302,16 @@
         <v>75467000</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="U18" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="U18" s="19" t="s">
+      <c r="V18" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4165,36 +4354,36 @@
       <c r="M19" s="10">
         <v>1657263000</v>
       </c>
-      <c r="N19" s="40">
+      <c r="N19" s="27">
         <v>2337000000</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="27">
         <v>2514000000</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="27">
         <v>2662000000</v>
       </c>
-      <c r="Q19" s="40">
+      <c r="Q19" s="27">
         <v>3359000000</v>
       </c>
-      <c r="R19" s="40">
+      <c r="R19" s="27">
         <v>3700000000</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="69">
         <f>M40-M56-M61</f>
         <v>2979765000</v>
       </c>
-      <c r="T19" s="33">
-        <f>U101/N3</f>
-        <v>9.7015460325379603</v>
-      </c>
-      <c r="U19" s="33">
-        <f>U101/N28</f>
-        <v>28.978916118790497</v>
-      </c>
-      <c r="V19" s="34">
-        <f>U101/N106</f>
-        <v>29.915804153846153</v>
+      <c r="T19" s="67">
+        <f>U102/N3</f>
+        <v>10.7155627780188</v>
+      </c>
+      <c r="U19" s="67">
+        <f>U102/N28</f>
+        <v>32.007825749460046</v>
+      </c>
+      <c r="V19" s="68">
+        <f>U102/N107</f>
+        <v>33.042638399108135</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4266,7 +4455,10 @@
         <f t="shared" si="5"/>
         <v>0.10151830902054182</v>
       </c>
-      <c r="S20" s="15"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -4315,31 +4507,35 @@
       <c r="M21" s="2">
         <v>0.37830000000000003</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="28">
         <f>N19/N3</f>
         <v>0.42245119305856832</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="28">
         <f t="shared" ref="O21:R21" si="6">O19/O3</f>
         <v>0.40891346779440468</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="28">
         <f t="shared" si="6"/>
         <v>0.38624492164828789</v>
       </c>
-      <c r="Q21" s="41">
+      <c r="Q21" s="28">
         <f t="shared" si="6"/>
         <v>0.44249769463838756</v>
       </c>
-      <c r="R21" s="41">
+      <c r="R21" s="28">
         <f t="shared" si="6"/>
         <v>0.47338792221084952</v>
       </c>
+      <c r="S21" s="42"/>
+      <c r="T21" s="73" t="s">
+        <v>166</v>
+      </c>
       <c r="U21" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V21" s="19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4382,13 +4578,18 @@
       <c r="M22" s="10">
         <v>1527106000</v>
       </c>
-      <c r="U22" s="38">
-        <f>M98/U101</f>
+      <c r="S22" s="42"/>
+      <c r="T22" s="17">
+        <f>SUM(N29:R29)/5</f>
+        <v>0.17684386197874469</v>
+      </c>
+      <c r="U22" s="71">
+        <f>M98/U102</f>
         <v>0</v>
       </c>
-      <c r="V22" s="39">
-        <f>M107/U101</f>
-        <v>8.350619452293314E-3</v>
+      <c r="V22" s="72">
+        <f>N107/U102</f>
+        <v>3.0263927109010498E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4636,19 +4837,19 @@
       <c r="M28" s="11">
         <v>1352446000</v>
       </c>
-      <c r="N28" s="42">
+      <c r="N28" s="29">
         <v>1852000000</v>
       </c>
-      <c r="O28" s="42">
+      <c r="O28" s="29">
         <v>2039000000</v>
       </c>
-      <c r="P28" s="42">
+      <c r="P28" s="29">
         <v>2273000000</v>
       </c>
-      <c r="Q28" s="42">
+      <c r="Q28" s="29">
         <v>2705000000</v>
       </c>
-      <c r="R28" s="42">
+      <c r="R28" s="29">
         <v>3000000000</v>
       </c>
     </row>
@@ -4773,23 +4974,23 @@
       <c r="M30" s="2">
         <v>0.30869999999999997</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="30">
         <f>N28/N3</f>
         <v>0.33477946493130872</v>
       </c>
-      <c r="O30" s="43">
+      <c r="O30" s="30">
         <f t="shared" ref="O30:R30" si="10">O28/O3</f>
         <v>0.33165256994144438</v>
       </c>
-      <c r="P30" s="43">
+      <c r="P30" s="30">
         <f t="shared" si="10"/>
         <v>0.32980266976204292</v>
       </c>
-      <c r="Q30" s="43">
+      <c r="Q30" s="30">
         <f t="shared" si="10"/>
         <v>0.35634303780793042</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="30">
         <f t="shared" si="10"/>
         <v>0.38382804503582396</v>
       </c>
@@ -4834,19 +5035,19 @@
       <c r="M31" s="12">
         <v>4.41</v>
       </c>
-      <c r="N31" s="44">
+      <c r="N31" s="31">
         <v>6.01</v>
       </c>
-      <c r="O31" s="44">
+      <c r="O31" s="31">
         <v>6.62</v>
       </c>
-      <c r="P31" s="44">
+      <c r="P31" s="31">
         <v>7.37</v>
       </c>
-      <c r="Q31" s="44">
+      <c r="Q31" s="31">
         <v>8.77</v>
       </c>
-      <c r="R31" s="44">
+      <c r="R31" s="31">
         <f>R28/M34</f>
         <v>9.4799010298332487</v>
       </c>
@@ -4979,64 +5180,64 @@
         <v>102</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <f>(C34-B34)/B34</f>
         <v>0.49633801524440951</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="20">
         <f t="shared" ref="D35:K35" si="11">(D34-C34)/C34</f>
         <v>-0.33170180145649675</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <f t="shared" si="11"/>
         <v>9.9666446443738895E-3</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <f t="shared" si="11"/>
         <v>0.30813335775783113</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <f t="shared" si="11"/>
         <v>2.5360238618700199E-2</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <f t="shared" si="11"/>
         <v>7.8596596651279674E-2</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="20">
         <f t="shared" si="11"/>
         <v>2.3639793864036366E-2</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="20">
         <f t="shared" si="11"/>
         <v>4.3293256147642375E-4</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="20">
         <f t="shared" si="11"/>
         <v>-1.7482906564126658E-2</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="20">
         <f t="shared" ref="L35" si="12">(L34-K34)/K34</f>
         <v>0</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="20">
         <f t="shared" ref="M35" si="13">(M34-L34)/L34</f>
         <v>-4.4076008305543321E-3</v>
       </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="21"/>
-      <c r="AK35" s="21"/>
-      <c r="AL35" s="21"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
     </row>
     <row r="36" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -6991,7 +7192,7 @@
         <v>-401531000</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -7031,12 +7232,8 @@
       <c r="M83" s="1">
         <v>-638948000</v>
       </c>
-      <c r="T83" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="U83" s="69"/>
-    </row>
-    <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -7076,12 +7273,18 @@
       <c r="M84" s="1">
         <v>31436000</v>
       </c>
-      <c r="T84" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="U84" s="70"/>
-    </row>
-    <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="U84" s="78"/>
+    </row>
+    <row r="85" spans="1:46" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -7121,13 +7324,16 @@
       <c r="M85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T85" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="U85" s="46">
-        <f>M17</f>
-        <v>7215000</v>
-      </c>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
+      <c r="Q85" s="42"/>
+      <c r="R85" s="42"/>
+      <c r="S85" s="42"/>
+      <c r="T85" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="U85" s="81"/>
     </row>
     <row r="86" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -7169,60 +7375,72 @@
       <c r="M86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T86" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="U86" s="46">
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
+      <c r="Q86" s="42"/>
+      <c r="R86" s="42"/>
+      <c r="S86" s="42"/>
+      <c r="T86" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="U86" s="43">
+        <f>M17</f>
+        <v>7215000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="10">
+        <v>12430000</v>
+      </c>
+      <c r="C87" s="10">
+        <v>26306000</v>
+      </c>
+      <c r="D87" s="10">
+        <v>34648000</v>
+      </c>
+      <c r="E87" s="10">
+        <v>114516000</v>
+      </c>
+      <c r="F87" s="10">
+        <v>200533000</v>
+      </c>
+      <c r="G87" s="10">
+        <v>131440000</v>
+      </c>
+      <c r="H87" s="10">
+        <v>631627000</v>
+      </c>
+      <c r="I87" s="10">
+        <v>503119000</v>
+      </c>
+      <c r="J87" s="10">
+        <v>963034000</v>
+      </c>
+      <c r="K87" s="10">
+        <v>735114000</v>
+      </c>
+      <c r="L87" s="10">
+        <v>1015856000</v>
+      </c>
+      <c r="M87" s="10">
+        <v>492813000</v>
+      </c>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="U87" s="43">
         <f>M56</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="10">
-        <v>12430000</v>
-      </c>
-      <c r="C87" s="10">
-        <v>26306000</v>
-      </c>
-      <c r="D87" s="10">
-        <v>34648000</v>
-      </c>
-      <c r="E87" s="10">
-        <v>114516000</v>
-      </c>
-      <c r="F87" s="10">
-        <v>200533000</v>
-      </c>
-      <c r="G87" s="10">
-        <v>131440000</v>
-      </c>
-      <c r="H87" s="10">
-        <v>631627000</v>
-      </c>
-      <c r="I87" s="10">
-        <v>503119000</v>
-      </c>
-      <c r="J87" s="10">
-        <v>963034000</v>
-      </c>
-      <c r="K87" s="10">
-        <v>735114000</v>
-      </c>
-      <c r="L87" s="10">
-        <v>1015856000</v>
-      </c>
-      <c r="M87" s="10">
-        <v>492813000</v>
-      </c>
-      <c r="T87" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="U87" s="46">
-        <f>M61</f>
-        <v>43964000</v>
       </c>
     </row>
     <row r="88" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7265,12 +7483,18 @@
       <c r="M88" s="1">
         <v>-44644000</v>
       </c>
-      <c r="T88" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="U88" s="48">
-        <f>U85/(U86+U87)</f>
-        <v>0.16411154581020834</v>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="U88" s="43">
+        <f>M61</f>
+        <v>43964000</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7325,12 +7549,18 @@
         <f t="shared" si="15"/>
         <v>1.0189646475597482E-2</v>
       </c>
-      <c r="T89" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="U89" s="46">
-        <f>M27</f>
-        <v>229350000</v>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
+      <c r="Q89" s="42"/>
+      <c r="R89" s="42"/>
+      <c r="S89" s="42"/>
+      <c r="T89" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="U89" s="44">
+        <f>U86/(U87+U88)</f>
+        <v>0.16411154581020834</v>
       </c>
       <c r="V89" s="15"/>
       <c r="AH89" s="15"/>
@@ -7338,10 +7568,10 @@
       <c r="AJ89" s="15"/>
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
-      <c r="AS89" s="22" t="s">
+      <c r="AS89" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="AT89" s="23">
+      <c r="AT89" s="22">
         <f>AL27</f>
         <v>0</v>
       </c>
@@ -7386,12 +7616,18 @@
       <c r="M90" s="1">
         <v>-145087000</v>
       </c>
-      <c r="T90" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="U90" s="46">
-        <f>M25</f>
-        <v>1581796000</v>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="42"/>
+      <c r="R90" s="42"/>
+      <c r="S90" s="42"/>
+      <c r="T90" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="U90" s="43">
+        <f>M27</f>
+        <v>229350000</v>
       </c>
     </row>
     <row r="91" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7434,12 +7670,18 @@
       <c r="M91" s="1">
         <v>-1418857000</v>
       </c>
-      <c r="T91" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="U91" s="48">
-        <f>U89/U90</f>
-        <v>0.14499341255130244</v>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="42"/>
+      <c r="R91" s="42"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="U91" s="43">
+        <f>M25</f>
+        <v>1581796000</v>
       </c>
     </row>
     <row r="92" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7482,15 +7724,21 @@
       <c r="M92" s="1">
         <v>1837606000</v>
       </c>
-      <c r="T92" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="U92" s="48">
-        <f>U88*(1-U91)</f>
-        <v>0.14031645274411683</v>
-      </c>
-    </row>
-    <row r="93" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U92" s="44">
+        <f>U90/U91</f>
+        <v>0.14499341255130244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -7530,12 +7778,21 @@
       <c r="M93" s="1">
         <v>-12691000</v>
       </c>
-      <c r="T93" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="U93" s="70"/>
-    </row>
-    <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
+      <c r="Q93" s="42"/>
+      <c r="R93" s="42"/>
+      <c r="S93" s="42"/>
+      <c r="T93" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="U93" s="44">
+        <f>U89*(1-U92)</f>
+        <v>0.14031645274411683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -7575,13 +7832,16 @@
       <c r="M94" s="10">
         <v>216327000</v>
       </c>
-      <c r="T94" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="U94" s="49">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.857E-2</v>
-      </c>
+      <c r="N94" s="42"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="42"/>
+      <c r="S94" s="42"/>
+      <c r="T94" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="U94" s="81"/>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -7623,12 +7883,18 @@
       <c r="M95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T95" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="U95" s="50" cm="1">
-        <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.2396</v>
+      <c r="N95" s="42"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="42"/>
+      <c r="Q95" s="42"/>
+      <c r="R95" s="42"/>
+      <c r="S95" s="42"/>
+      <c r="T95" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="U95" s="76">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7671,11 +7937,18 @@
       <c r="M96" s="1">
         <v>48411000</v>
       </c>
-      <c r="T96" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="U96" s="49">
-        <v>8.4000000000000005E-2</v>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="42"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="U96" s="46" cm="1">
+        <f t="array" ref="U96">_FV(A1,"Beta")</f>
+        <v>1.1405000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7718,15 +7991,20 @@
       <c r="M97" s="1">
         <v>-670287000</v>
       </c>
-      <c r="T97" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="U97" s="48">
-        <f>(U94)+((U95)*(U96-U94))</f>
-        <v>9.488502800000001E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="42"/>
+      <c r="R97" s="42"/>
+      <c r="S97" s="42"/>
+      <c r="T97" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="U97" s="45">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -7766,12 +8044,21 @@
       <c r="M98" s="1">
         <v>0</v>
       </c>
-      <c r="T98" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="U98" s="70"/>
-    </row>
-    <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="N98" s="42"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="42"/>
+      <c r="S98" s="42"/>
+      <c r="T98" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="U98" s="44">
+        <f>(U95)+((U96)*(U97-U95))</f>
+        <v>8.8914690000000018E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -7811,13 +8098,16 @@
       <c r="M99" s="1">
         <v>-32725000</v>
       </c>
-      <c r="T99" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="U99" s="46">
-        <f>U86+U87</f>
-        <v>43964000</v>
-      </c>
+      <c r="N99" s="42"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="42"/>
+      <c r="S99" s="42"/>
+      <c r="T99" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="U99" s="81"/>
     </row>
     <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -7859,12 +8149,18 @@
       <c r="M100" s="10">
         <v>-654601000</v>
       </c>
-      <c r="T100" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="U100" s="48">
-        <f>U99/U103</f>
-        <v>8.1849958520848636E-4</v>
+      <c r="N100" s="42"/>
+      <c r="O100" s="42"/>
+      <c r="P100" s="42"/>
+      <c r="Q100" s="42"/>
+      <c r="R100" s="42"/>
+      <c r="S100" s="42"/>
+      <c r="T100" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="U100" s="43">
+        <f>U87+U88</f>
+        <v>43964000</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7907,12 +8203,18 @@
       <c r="M101" s="1">
         <v>-3611000</v>
       </c>
-      <c r="T101" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="U101" s="51" cm="1">
-        <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>53668952652</v>
+      <c r="N101" s="42"/>
+      <c r="O101" s="42"/>
+      <c r="P101" s="42"/>
+      <c r="Q101" s="42"/>
+      <c r="R101" s="42"/>
+      <c r="S101" s="42"/>
+      <c r="T101" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="U101" s="44">
+        <f>U100/U104</f>
+        <v>7.4110213922128315E-4</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7955,12 +8257,18 @@
       <c r="M102" s="10">
         <v>50928000</v>
       </c>
-      <c r="T102" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="U102" s="48">
-        <f>U101/U103</f>
-        <v>0.99918150041479148</v>
+      <c r="N102" s="42"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="42"/>
+      <c r="Q102" s="42"/>
+      <c r="R102" s="42"/>
+      <c r="S102" s="42"/>
+      <c r="T102" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="U102" s="47" cm="1">
+        <f t="array" ref="U102">_FV(A1,"Market cap",TRUE)</f>
+        <v>59278493288</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8003,15 +8311,21 @@
       <c r="M103" s="1">
         <v>625050000</v>
       </c>
-      <c r="T103" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="U103" s="52">
-        <f>U99+U101</f>
-        <v>53712916652</v>
-      </c>
-    </row>
-    <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N103" s="42"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
+      <c r="Q103" s="42"/>
+      <c r="R103" s="42"/>
+      <c r="S103" s="42"/>
+      <c r="T103" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="U103" s="44">
+        <f>U102/U104</f>
+        <v>0.99925889786077871</v>
+      </c>
+    </row>
+    <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -8051,17 +8365,28 @@
       <c r="M104" s="11">
         <v>675978000</v>
       </c>
-      <c r="T104" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="U104" s="70"/>
+      <c r="N104" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="O104" s="79"/>
+      <c r="P104" s="79"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="42"/>
+      <c r="T104" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="U104" s="48">
+        <f>U100+U102</f>
+        <v>59322457288</v>
+      </c>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:L105" si="16">(B22*(1-$U$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:M105" si="16">(B22*(1-$U$92))+B77+B88+B81</f>
         <v>13841292.482722171</v>
       </c>
       <c r="C105" s="1">
@@ -8105,39 +8430,36 @@
         <v>769379936.67072117</v>
       </c>
       <c r="M105" s="1">
-        <f>(M22*(1-$U$91))+M77+M88+M81</f>
+        <f t="shared" si="16"/>
         <v>414856689.73243093</v>
       </c>
-      <c r="N105" s="30">
-        <f>M105*(1+$U$106)</f>
+      <c r="N105" s="49">
+        <f>M105*(1+$U$107)</f>
         <v>466802178.60997313</v>
       </c>
-      <c r="O105" s="30">
-        <f t="shared" ref="O105:R105" si="17">N105*(1+$U$106)</f>
+      <c r="O105" s="49">
+        <f>N105*(1+$U$107)</f>
         <v>525251922.7677356</v>
       </c>
-      <c r="P105" s="30">
-        <f t="shared" si="17"/>
+      <c r="P105" s="49">
+        <f>O105*(1+$U$107)</f>
         <v>591020340.12081397</v>
       </c>
-      <c r="Q105" s="30">
-        <f t="shared" si="17"/>
+      <c r="Q105" s="49">
+        <f>P105*(1+$U$107)</f>
         <v>665023824.36967111</v>
       </c>
-      <c r="R105" s="30">
-        <f t="shared" si="17"/>
+      <c r="R105" s="49">
+        <f>Q105*(1+$U$107)</f>
         <v>748293513.70353651</v>
       </c>
-      <c r="S105" s="31" t="s">
+      <c r="S105" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="T105" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="U105" s="54">
-        <f>(U100*U92)+(U102*U97)</f>
-        <v>9.49222136023085E-2</v>
-      </c>
+      <c r="T105" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="U105" s="81"/>
       <c r="V105" s="15"/>
       <c r="AH105" s="15"/>
       <c r="AI105" s="15"/>
@@ -8150,274 +8472,368 @@
       <c r="AP105" s="15"/>
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
-      <c r="AS105" s="24" t="s">
+      <c r="AS105" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="AT105" s="25">
+      <c r="AT105" s="24">
         <f>(AT100*AT92)+(AT102*AT97)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:M106" si="18">(C107/B107)-1</f>
+        <f t="shared" ref="C106:M106" si="17">(C107/B107)-1</f>
         <v>1.3803312629399587</v>
       </c>
       <c r="D106" s="15">
+        <f t="shared" si="17"/>
+        <v>-0.37670696703487871</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="17"/>
+        <v>6.0738208205414459</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="17"/>
+        <v>0.78082894399400282</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="17"/>
+        <v>-0.39061392236795467</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="17"/>
+        <v>4.6020941456631004</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="17"/>
+        <v>-0.22237275045915617</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="17"/>
+        <v>0.97643384262939481</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="17"/>
+        <v>-0.24021649285377233</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="17"/>
+        <v>0.32149556083531317</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="17"/>
+        <v>-0.52879867945159398</v>
+      </c>
+      <c r="N106" s="39">
+        <f>(N107/M107)-1</f>
+        <v>3.00295424270755</v>
+      </c>
+      <c r="O106" s="39">
+        <f>(O107/N107)-1</f>
+        <v>0.19230769230769229</v>
+      </c>
+      <c r="P106" s="39">
+        <f t="shared" ref="P106:R106" si="18">(P107/O107)-1</f>
+        <v>7.9476390836839661E-2</v>
+      </c>
+      <c r="Q106" s="39">
         <f t="shared" si="18"/>
-        <v>-0.37670696703487871</v>
-      </c>
-      <c r="E106" s="15">
+        <v>0.20918146383715897</v>
+      </c>
+      <c r="R106" s="39">
         <f t="shared" si="18"/>
-        <v>6.0738208205414459</v>
-      </c>
-      <c r="F106" s="15">
-        <f t="shared" si="18"/>
-        <v>0.78082894399400282</v>
-      </c>
-      <c r="G106" s="15">
-        <f t="shared" si="18"/>
-        <v>-0.39061392236795467</v>
-      </c>
-      <c r="H106" s="15">
-        <f t="shared" si="18"/>
-        <v>4.6020941456631004</v>
-      </c>
-      <c r="I106" s="15">
-        <f t="shared" si="18"/>
-        <v>-0.22237275045915617</v>
-      </c>
-      <c r="J106" s="15">
-        <f t="shared" si="18"/>
-        <v>0.97643384262939481</v>
-      </c>
-      <c r="K106" s="15">
-        <f t="shared" si="18"/>
-        <v>-0.24021649285377233</v>
-      </c>
-      <c r="L106" s="15">
-        <f t="shared" si="18"/>
-        <v>0.32149556083531317</v>
-      </c>
-      <c r="M106" s="15">
-        <f t="shared" si="18"/>
-        <v>-0.52879867945159398</v>
-      </c>
-      <c r="N106" s="36">
+        <v>2.9727793696274984E-2</v>
+      </c>
+      <c r="S106" s="40">
+        <f>SUM(N106:R106)/5</f>
+        <v>0.70272951667710326</v>
+      </c>
+      <c r="T106" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="U106" s="50">
+        <f>(U101*U93)+(U103*U98)</f>
+        <v>8.8952783956329426E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1">
+        <v>9660000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>22994000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>14332000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>101382000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>180544000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>110021000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>616348000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>479289000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>947283000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>719730000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>951120000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>448169000</v>
+      </c>
+      <c r="N107" s="51">
         <v>1794000000</v>
       </c>
-      <c r="O106" s="36">
+      <c r="O107" s="51">
         <v>2139000000</v>
       </c>
-      <c r="P106" s="36">
+      <c r="P107" s="51">
         <v>2309000000</v>
       </c>
-      <c r="Q106" s="36">
+      <c r="Q107" s="51">
         <v>2792000000</v>
       </c>
-      <c r="R106" s="36">
+      <c r="R107" s="51">
         <v>2875000000</v>
       </c>
-      <c r="S106" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="T106" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="U106" s="56">
+      <c r="S107" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="T107" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="U107" s="35">
         <f>(SUM(N4:R4)/5)</f>
         <v>0.12521309204642547</v>
       </c>
     </row>
-    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="B107" s="1">
-        <v>9660000</v>
-      </c>
-      <c r="C107" s="1">
-        <v>22994000</v>
-      </c>
-      <c r="D107" s="1">
-        <v>14332000</v>
-      </c>
-      <c r="E107" s="1">
-        <v>101382000</v>
-      </c>
-      <c r="F107" s="1">
-        <v>180544000</v>
-      </c>
-      <c r="G107" s="1">
-        <v>110021000</v>
-      </c>
-      <c r="H107" s="1">
-        <v>616348000</v>
-      </c>
-      <c r="I107" s="1">
-        <v>479289000</v>
-      </c>
-      <c r="J107" s="1">
-        <v>947283000</v>
-      </c>
-      <c r="K107" s="1">
-        <v>719730000</v>
-      </c>
-      <c r="L107" s="1">
-        <v>951120000</v>
-      </c>
-      <c r="M107" s="1">
-        <v>448169000</v>
-      </c>
-      <c r="N107" s="31"/>
-      <c r="O107" s="31"/>
-      <c r="P107" s="31"/>
-      <c r="Q107" s="31"/>
-      <c r="R107" s="37">
-        <f>R106*(1+U107)/(U108-U107)</f>
-        <v>42145047305.863724</v>
-      </c>
-      <c r="S107" s="32" t="s">
+    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.2">
+      <c r="N108" s="41"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="53">
+        <f>R107*(1+U108)/(U109-U108)</f>
+        <v>46078916627.183777</v>
+      </c>
+      <c r="S108" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="T108" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="T107" s="57" t="s">
+      <c r="U108" s="36">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.2">
+      <c r="N109" s="53">
+        <f>N108+N107</f>
+        <v>1794000000</v>
+      </c>
+      <c r="O109" s="53">
+        <f>O108+O107</f>
+        <v>2139000000</v>
+      </c>
+      <c r="P109" s="53">
+        <f>P108+P107</f>
+        <v>2309000000</v>
+      </c>
+      <c r="Q109" s="53">
+        <f>Q108+Q107</f>
+        <v>2792000000</v>
+      </c>
+      <c r="R109" s="53">
+        <f>R108+R107</f>
+        <v>48953916627.183777</v>
+      </c>
+      <c r="S109" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T109" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="U107" s="58">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N108" s="37">
-        <f t="shared" ref="N108:Q108" si="19">N107+N106</f>
-        <v>1794000000</v>
-      </c>
-      <c r="O108" s="37">
-        <f t="shared" si="19"/>
-        <v>2139000000</v>
-      </c>
-      <c r="P108" s="37">
-        <f t="shared" si="19"/>
-        <v>2309000000</v>
-      </c>
-      <c r="Q108" s="37">
-        <f t="shared" si="19"/>
-        <v>2792000000</v>
-      </c>
-      <c r="R108" s="37">
-        <f>R107+R106</f>
-        <v>45020047305.863724</v>
-      </c>
-      <c r="S108" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="T108" s="59" t="s">
+      <c r="U109" s="35">
+        <f>U106</f>
+        <v>8.8952783956329426E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.2">
+      <c r="N110" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="U108" s="56">
-        <f>U105</f>
-        <v>9.49222136023085E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="67" t="s">
+      <c r="O110" s="80"/>
+      <c r="P110" s="42"/>
+      <c r="Q110" s="42"/>
+      <c r="R110" s="42"/>
+      <c r="S110" s="42"/>
+      <c r="T110" s="42"/>
+      <c r="U110" s="42"/>
+    </row>
+    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="N111" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="O109" s="67"/>
-    </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N110" s="60" t="s">
+      <c r="O111" s="47">
+        <f>NPV(U109,N109,O109,P109,Q109,R109)</f>
+        <v>39194902964.368576</v>
+      </c>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
+      <c r="T111" s="42"/>
+      <c r="U111" s="42"/>
+    </row>
+    <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="N112" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="O110" s="51">
-        <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>35732443843.52002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N111" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="O111" s="51">
+      <c r="O112" s="47">
         <f>M40</f>
         <v>3023729000</v>
       </c>
-    </row>
-    <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N112" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="O112" s="51">
-        <f>U99</f>
+      <c r="P112" s="42"/>
+      <c r="Q112" s="42"/>
+      <c r="R112" s="42"/>
+      <c r="S112" s="42"/>
+      <c r="T112" s="42"/>
+      <c r="U112" s="42"/>
+    </row>
+    <row r="113" spans="14:21" ht="20" x14ac:dyDescent="0.2">
+      <c r="N113" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="O113" s="47">
+        <f>U100</f>
         <v>43964000</v>
       </c>
-    </row>
-    <row r="113" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N113" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="O113" s="51">
-        <f>O110+O111-O112</f>
-        <v>38712208843.52002</v>
-      </c>
-    </row>
-    <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N114" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="O114" s="60">
+      <c r="P113" s="42"/>
+      <c r="Q113" s="42"/>
+      <c r="R113" s="42"/>
+      <c r="S113" s="42"/>
+      <c r="T113" s="42"/>
+      <c r="U113" s="42"/>
+    </row>
+    <row r="114" spans="14:21" ht="20" x14ac:dyDescent="0.2">
+      <c r="N114" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="O114" s="47">
+        <f>O111+O112-O113</f>
+        <v>42174667964.368576</v>
+      </c>
+      <c r="P114" s="42"/>
+      <c r="Q114" s="42"/>
+      <c r="R114" s="42"/>
+      <c r="S114" s="42"/>
+      <c r="T114" s="42"/>
+      <c r="U114" s="42"/>
+    </row>
+    <row r="115" spans="14:21" ht="20" x14ac:dyDescent="0.2">
+      <c r="N115" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="O115" s="57">
         <f>M34*(1+(S16*4))</f>
         <v>317011466.28182238</v>
       </c>
-    </row>
-    <row r="115" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N115" s="61" t="s">
+      <c r="P115" s="42"/>
+      <c r="Q115" s="42"/>
+      <c r="R115" s="42"/>
+      <c r="S115" s="42"/>
+      <c r="T115" s="42"/>
+      <c r="U115" s="42"/>
+    </row>
+    <row r="116" spans="14:21" ht="20" x14ac:dyDescent="0.2">
+      <c r="N116" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="O116" s="59">
+        <f>O114/O115</f>
+        <v>133.03830444692937</v>
+      </c>
+      <c r="P116" s="42"/>
+      <c r="Q116" s="42"/>
+      <c r="R116" s="42"/>
+      <c r="S116" s="42"/>
+      <c r="T116" s="42"/>
+      <c r="U116" s="42"/>
+    </row>
+    <row r="117" spans="14:21" ht="20" x14ac:dyDescent="0.2">
+      <c r="N117" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="O115" s="62">
-        <f>O113/O114</f>
-        <v>122.11611553856214</v>
-      </c>
-    </row>
-    <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N116" s="60" t="s">
+      <c r="O117" s="60" cm="1">
+        <f t="array" ref="O117">_FV(A1,"Price")</f>
+        <v>191.48</v>
+      </c>
+      <c r="P117" s="42"/>
+      <c r="Q117" s="42"/>
+      <c r="R117" s="42"/>
+      <c r="S117" s="42"/>
+      <c r="T117" s="42"/>
+      <c r="U117" s="42"/>
+    </row>
+    <row r="118" spans="14:21" ht="20" x14ac:dyDescent="0.2">
+      <c r="N118" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="O116" s="63" cm="1">
-        <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>174.09</v>
-      </c>
-    </row>
-    <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N117" s="61" t="s">
+      <c r="O118" s="61">
+        <f>O116/O117-1</f>
+        <v>-0.30521044262100805</v>
+      </c>
+      <c r="P118" s="42"/>
+      <c r="Q118" s="42"/>
+      <c r="R118" s="42"/>
+      <c r="S118" s="42"/>
+      <c r="T118" s="42"/>
+      <c r="U118" s="42"/>
+    </row>
+    <row r="119" spans="14:21" ht="20" x14ac:dyDescent="0.2">
+      <c r="N119" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="O117" s="64">
-        <f>O115/O116-1</f>
-        <v>-0.29854606503209757</v>
-      </c>
-    </row>
-    <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N118" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="O118" s="65" t="str">
-        <f>IF(O115&gt;O116,"BUY","SELL")</f>
+      <c r="O119" s="62" t="str">
+        <f>IF(O116&gt;O117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="P119" s="42"/>
+      <c r="Q119" s="42"/>
+      <c r="R119" s="42"/>
+      <c r="S119" s="42"/>
+      <c r="T119" s="42"/>
+      <c r="U119" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="T83:U83"/>
+  <mergeCells count="7">
     <mergeCell ref="T84:U84"/>
-    <mergeCell ref="T93:U93"/>
-    <mergeCell ref="T98:U98"/>
-    <mergeCell ref="T104:U104"/>
+    <mergeCell ref="N104:R104"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="T99:U99"/>
+    <mergeCell ref="T94:U94"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="T105:U105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B36" r:id="rId1" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -8445,7 +8861,7 @@
     <hyperlink ref="M36" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1596532/000159653223000016/0001596532-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="M74" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1596532/000159653223000016/0001596532-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="N1" r:id="rId25" display="https://finbox.com/NYSE:ANET/explorer/revenue_proj" xr:uid="{E2AF0D85-98FD-E14D-B06B-326610703AE9}"/>
-    <hyperlink ref="S106" r:id="rId26" xr:uid="{EC4E03D2-F757-CF4E-93AF-531565B67EE2}"/>
+    <hyperlink ref="S107" r:id="rId26" xr:uid="{EC4E03D2-F757-CF4E-93AF-531565B67EE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId27"/>

--- a/Technology/Hardware/Arista Networks.xlsx
+++ b/Technology/Hardware/Arista Networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1BDFC9-BFF5-E54A-92B8-F3EB52882624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3946DA-FC80-3843-A87C-7C5295CEA866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2502,7 +2502,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2642,12 +2642,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>198.7</v>
-    <v>104.06</v>
-    <v>1.1405000000000001</v>
-    <v>-2.72</v>
-    <v>-1.4006000000000001E-2</v>
-    <v>-1.1000000000000001</v>
-    <v>-5.7450000000000001E-3</v>
+    <v>104.83</v>
+    <v>1.1393</v>
+    <v>-5.37</v>
+    <v>-2.8045E-2</v>
+    <v>-0.31</v>
+    <v>-1.6659999999999999E-3</v>
     <v>USD</v>
     <v>Arista Networks, Inc. is a supplier of cloud networking solutions that use software to address the needs of Internet companies, cloud service providers and enterprises. The Company cloud networking solutions consist of its Extensible Operating System (EOS), a set of network applications and its Gigabit Ethernet switching and routing platforms. Its cognitive single-tier Spline campus network extends EOS across the data center and campus wired and wireless workspace. The Company’s CloudVision is a network-wide approach for workload orchestration and automation, leverages EOS and Cognitive WiFi features, to deliver cloud networking solutions to its enterprise customers. The Company sells its products through both its direct sales force and its channel partners. Its end customers span a range of industries and include large Internet companies, service providers, financial services organizations, government agencies, media and entertainment companies and other cloud service providers.</v>
     <v>3612</v>
@@ -2655,25 +2655,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5453 Great America Pkwy, SANTA CLARA, CA, 95054 US</v>
-    <v>197.31</v>
+    <v>192.76499999999999</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45218.995525508595</v>
+    <v>45219.997198784375</v>
     <v>0</v>
-    <v>190.67</v>
-    <v>59278493288</v>
+    <v>184.14</v>
+    <v>57616045466</v>
     <v>ARISTA NETWORKS, INC.</v>
     <v>ARISTA NETWORKS, INC.</v>
-    <v>195</v>
-    <v>35.853299999999997</v>
-    <v>194.2</v>
+    <v>192.65</v>
+    <v>35.351199999999999</v>
     <v>191.48</v>
-    <v>190.38</v>
+    <v>186.11</v>
+    <v>185.8</v>
     <v>309580600</v>
     <v>ANET</v>
     <v>ARISTA NETWORKS, INC. (XNYS:ANET)</v>
-    <v>1645980</v>
-    <v>1724295</v>
+    <v>1587734</v>
+    <v>1728194</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -3261,7 +3261,7 @@
   <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="O100" sqref="O100"/>
@@ -4205,15 +4205,15 @@
       </c>
       <c r="T16" s="67">
         <f>U102/M3</f>
-        <v>13.529855976408882</v>
+        <v>13.150415164870781</v>
       </c>
       <c r="U16" s="67">
         <f>U102/M28</f>
-        <v>43.830580509683934</v>
+        <v>42.601364835268839</v>
       </c>
       <c r="V16" s="68">
         <f>U102/M107</f>
-        <v>132.26816956996134</v>
+        <v>128.55874785181481</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="T19" s="67">
         <f>U102/N3</f>
-        <v>10.7155627780188</v>
+        <v>10.415047987346348</v>
       </c>
       <c r="U19" s="67">
         <f>U102/N28</f>
-        <v>32.007825749460046</v>
+        <v>31.110175737580992</v>
       </c>
       <c r="V19" s="68">
         <f>U102/N107</f>
-        <v>33.042638399108135</v>
+        <v>32.115967372352287</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="V22" s="72">
         <f>N107/U102</f>
-        <v>3.0263927109010498E-2</v>
+        <v>3.1137159544534575E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="U95" s="76">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="U96" s="46" cm="1">
         <f t="array" ref="U96">_FV(A1,"Beta")</f>
-        <v>1.1405000000000001</v>
+        <v>1.1393</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="U98" s="44">
         <f>(U95)+((U96)*(U97-U95))</f>
-        <v>8.8914690000000018E-2</v>
+        <v>8.8752916000000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="U101" s="44">
         <f>U100/U104</f>
-        <v>7.4110213922128315E-4</v>
+        <v>7.624695244964183E-4</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="U102" s="47" cm="1">
         <f t="array" ref="U102">_FV(A1,"Market cap",TRUE)</f>
-        <v>59278493288</v>
+        <v>57616045466</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8322,7 +8322,7 @@
       </c>
       <c r="U103" s="44">
         <f>U102/U104</f>
-        <v>0.99925889786077871</v>
+        <v>0.99923753047550357</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="U104" s="48">
         <f>U100+U102</f>
-        <v>59322457288</v>
+        <v>57660009466</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="U106" s="50">
         <f>(U101*U93)+(U103*U98)</f>
-        <v>8.8952783956329426E-2</v>
+        <v>8.8792231625342638E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -8634,7 +8634,7 @@
       <c r="Q108" s="41"/>
       <c r="R108" s="53">
         <f>R107*(1+U108)/(U109-U108)</f>
-        <v>46078916627.183777</v>
+        <v>46194888075.200974</v>
       </c>
       <c r="S108" s="54" t="s">
         <v>145</v>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="R109" s="53">
         <f>R108+R107</f>
-        <v>48953916627.183777</v>
+        <v>49069888075.200974</v>
       </c>
       <c r="S109" s="54" t="s">
         <v>142</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="U109" s="35">
         <f>U106</f>
-        <v>8.8952783956329426E-2</v>
+        <v>8.8792231625342638E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.2">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="O111" s="47">
         <f>NPV(U109,N109,O109,P109,Q109,R109)</f>
-        <v>39194902964.368576</v>
+        <v>39297011188.186279</v>
       </c>
       <c r="P111" s="42"/>
       <c r="Q111" s="42"/>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="O114" s="47">
         <f>O111+O112-O113</f>
-        <v>42174667964.368576</v>
+        <v>42276776188.186279</v>
       </c>
       <c r="P114" s="42"/>
       <c r="Q114" s="42"/>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="O116" s="59">
         <f>O114/O115</f>
-        <v>133.03830444692937</v>
+        <v>133.36040075787773</v>
       </c>
       <c r="P116" s="42"/>
       <c r="Q116" s="42"/>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="O117" s="60" cm="1">
         <f t="array" ref="O117">_FV(A1,"Price")</f>
-        <v>191.48</v>
+        <v>186.11</v>
       </c>
       <c r="P117" s="42"/>
       <c r="Q117" s="42"/>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="O118" s="61">
         <f>O116/O117-1</f>
-        <v>-0.30521044262100805</v>
+        <v>-0.2834323746285653</v>
       </c>
       <c r="P118" s="42"/>
       <c r="Q118" s="42"/>

--- a/Technology/Hardware/Arista Networks.xlsx
+++ b/Technology/Hardware/Arista Networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3946DA-FC80-3843-A87C-7C5295CEA866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353D9712-FADF-E64D-98F1-202D296E5334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -562,9 +562,6 @@
   </si>
   <si>
     <t>Levered FCF</t>
-  </si>
-  <si>
-    <t>Unlevered FCF Proj</t>
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
@@ -906,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1006,9 +1003,6 @@
     <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1087,14 +1081,22 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2477,16 +2479,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2499,14 +2500,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2515,7 +2516,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2642,12 +2642,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>198.7</v>
-    <v>104.83</v>
-    <v>1.1393</v>
-    <v>-5.37</v>
-    <v>-2.8045E-2</v>
-    <v>-0.31</v>
-    <v>-1.6659999999999999E-3</v>
+    <v>107.57</v>
+    <v>1.1448</v>
+    <v>6.37</v>
+    <v>3.7510000000000002E-2</v>
+    <v>0.28000000000000003</v>
+    <v>1.5890000000000001E-3</v>
     <v>USD</v>
     <v>Arista Networks, Inc. is a supplier of cloud networking solutions that use software to address the needs of Internet companies, cloud service providers and enterprises. The Company cloud networking solutions consist of its Extensible Operating System (EOS), a set of network applications and its Gigabit Ethernet switching and routing platforms. Its cognitive single-tier Spline campus network extends EOS across the data center and campus wired and wireless workspace. The Company’s CloudVision is a network-wide approach for workload orchestration and automation, leverages EOS and Cognitive WiFi features, to deliver cloud networking solutions to its enterprise customers. The Company sells its products through both its direct sales force and its channel partners. Its end customers span a range of industries and include large Internet companies, service providers, financial services organizations, government agencies, media and entertainment companies and other cloud service providers.</v>
     <v>3612</v>
@@ -2655,25 +2655,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5453 Great America Pkwy, SANTA CLARA, CA, 95054 US</v>
-    <v>192.76499999999999</v>
+    <v>177</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45219.997198784375</v>
+    <v>45226.996621400001</v>
     <v>0</v>
-    <v>184.14</v>
-    <v>57616045466</v>
+    <v>170.87</v>
+    <v>54545010000</v>
     <v>ARISTA NETWORKS, INC.</v>
     <v>ARISTA NETWORKS, INC.</v>
-    <v>192.65</v>
-    <v>35.351199999999999</v>
-    <v>191.48</v>
-    <v>186.11</v>
-    <v>185.8</v>
+    <v>171.47</v>
+    <v>32.528300000000002</v>
+    <v>169.82</v>
+    <v>176.19</v>
+    <v>176.47</v>
     <v>309580600</v>
     <v>ANET</v>
     <v>ARISTA NETWORKS, INC. (XNYS:ANET)</v>
-    <v>1587734</v>
-    <v>1728194</v>
+    <v>2789439</v>
+    <v>1905127</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2838,9 +2838,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3261,10 +3261,10 @@
   <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O100" sqref="O100"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3521,19 +3521,19 @@
         <f t="shared" si="0"/>
         <v>2.9640363588460117E-2</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="62">
         <f>(M4+L4+K4)/3</f>
         <v>0.23986339101331902</v>
       </c>
-      <c r="T4" s="63">
+      <c r="T4" s="62">
         <f>(M20+L20+K20)/3</f>
         <v>0.25089335709787719</v>
       </c>
-      <c r="U4" s="63">
+      <c r="U4" s="62">
         <f>(M29+L29+K29)/3</f>
         <v>0.22383153679403309</v>
       </c>
-      <c r="V4" s="63">
+      <c r="V4" s="62">
         <f>(M106+L106+K106)/3</f>
         <v>-0.14917320382335106</v>
       </c>
@@ -3636,16 +3636,16 @@
         <f>N3*N7</f>
         <v>3352392000</v>
       </c>
-      <c r="S6" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="T6" s="75" t="s">
+      <c r="S6" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="T6" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="V6" s="75" t="s">
+      <c r="V6" s="74" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3692,19 +3692,19 @@
       <c r="N7" s="2">
         <v>0.60599999999999998</v>
       </c>
-      <c r="S7" s="63">
+      <c r="S7" s="62">
         <f>N7</f>
         <v>0.60599999999999998</v>
       </c>
-      <c r="T7" s="64">
+      <c r="T7" s="63">
         <f>N21</f>
         <v>0.42245119305856832</v>
       </c>
-      <c r="U7" s="64">
+      <c r="U7" s="63">
         <f>N30</f>
         <v>0.33477946493130872</v>
       </c>
-      <c r="V7" s="64">
+      <c r="V7" s="63">
         <f>N107/N3</f>
         <v>0.324295010845987</v>
       </c>
@@ -3868,19 +3868,19 @@
       <c r="M10" s="1">
         <v>93241000</v>
       </c>
-      <c r="S10" s="63">
+      <c r="S10" s="62">
         <f>M9</f>
         <v>0.16625027674371365</v>
       </c>
-      <c r="T10" s="64">
+      <c r="T10" s="63">
         <f>M13</f>
         <v>9.5906475460535781E-2</v>
       </c>
-      <c r="U10" s="64">
+      <c r="U10" s="63">
         <f>M80</f>
         <v>5.2708893002321226E-2</v>
       </c>
-      <c r="V10" s="64">
+      <c r="V10" s="63">
         <f>M89</f>
         <v>1.0189646475597482E-2</v>
       </c>
@@ -4039,19 +4039,19 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="S13" s="63">
+      <c r="S13" s="62">
         <f>M28/M72</f>
         <v>0.27681044328280618</v>
       </c>
-      <c r="T13" s="64">
+      <c r="T13" s="63">
         <f>M28/M54</f>
         <v>0.19961094605344917</v>
       </c>
-      <c r="U13" s="64">
+      <c r="U13" s="63">
         <f>M22/(M72+M56+M61)</f>
         <v>0.30977138146417776</v>
       </c>
-      <c r="V13" s="65">
+      <c r="V13" s="64">
         <f>M67/M72</f>
         <v>0.38674981886356846</v>
       </c>
@@ -4199,21 +4199,21 @@
       <c r="M16" s="1">
         <v>2854204000</v>
       </c>
-      <c r="S16" s="66">
+      <c r="S16" s="65">
         <f>(M35+L35+K35+J35+I35)/5</f>
         <v>4.3644380616636029E-4</v>
       </c>
-      <c r="T16" s="67">
+      <c r="T16" s="66">
         <f>U102/M3</f>
-        <v>13.150415164870781</v>
-      </c>
-      <c r="U16" s="67">
+        <v>12.4494751569736</v>
+      </c>
+      <c r="U16" s="66">
         <f>U102/M28</f>
-        <v>42.601364835268839</v>
-      </c>
-      <c r="V16" s="68">
+        <v>40.330637970018763</v>
+      </c>
+      <c r="V16" s="67">
         <f>U102/M107</f>
-        <v>128.55874785181481</v>
+        <v>121.70634291974679</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4369,21 +4369,21 @@
       <c r="R19" s="27">
         <v>3700000000</v>
       </c>
-      <c r="S19" s="69">
+      <c r="S19" s="68">
         <f>M40-M56-M61</f>
         <v>2979765000</v>
       </c>
-      <c r="T19" s="67">
+      <c r="T19" s="66">
         <f>U102/N3</f>
-        <v>10.415047987346348</v>
-      </c>
-      <c r="U19" s="67">
+        <v>9.8599078091106289</v>
+      </c>
+      <c r="U19" s="66">
         <f>U102/N28</f>
-        <v>31.110175737580992</v>
-      </c>
-      <c r="V19" s="68">
+        <v>29.451949244060476</v>
+      </c>
+      <c r="V19" s="67">
         <f>U102/N107</f>
-        <v>32.115967372352287</v>
+        <v>30.404130434782608</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4455,7 +4455,7 @@
         <f t="shared" si="5"/>
         <v>0.10151830902054182</v>
       </c>
-      <c r="S20" s="70"/>
+      <c r="S20" s="69"/>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
       <c r="V20" s="42"/>
@@ -4528,14 +4528,14 @@
         <v>0.47338792221084952</v>
       </c>
       <c r="S21" s="42"/>
-      <c r="T21" s="73" t="s">
-        <v>166</v>
+      <c r="T21" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="U21" s="18" t="s">
         <v>160</v>
       </c>
       <c r="V21" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4583,13 +4583,13 @@
         <f>SUM(N29:R29)/5</f>
         <v>0.17684386197874469</v>
       </c>
-      <c r="U22" s="71">
+      <c r="U22" s="70">
         <f>M98/U102</f>
         <v>0</v>
       </c>
-      <c r="V22" s="72">
+      <c r="V22" s="71">
         <f>N107/U102</f>
-        <v>3.1137159544534575E-2</v>
+        <v>3.2890268055684652E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7279,10 +7279,10 @@
       <c r="Q84" s="42"/>
       <c r="R84" s="42"/>
       <c r="S84" s="42"/>
-      <c r="T84" s="77" t="s">
+      <c r="T84" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="U84" s="78"/>
+      <c r="U84" s="79"/>
     </row>
     <row r="85" spans="1:46" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7330,10 +7330,10 @@
       <c r="Q85" s="42"/>
       <c r="R85" s="42"/>
       <c r="S85" s="42"/>
-      <c r="T85" s="81" t="s">
+      <c r="T85" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="U85" s="81"/>
+      <c r="U85" s="82"/>
     </row>
     <row r="86" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -7838,10 +7838,10 @@
       <c r="Q94" s="42"/>
       <c r="R94" s="42"/>
       <c r="S94" s="42"/>
-      <c r="T94" s="81" t="s">
+      <c r="T94" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="U94" s="81"/>
+      <c r="U94" s="82"/>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -7892,9 +7892,9 @@
       <c r="T95" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="U95" s="76">
+      <c r="U95" s="45">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="U96" s="46" cm="1">
         <f t="array" ref="U96">_FV(A1,"Beta")</f>
-        <v>1.1393</v>
+        <v>1.1448</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="U98" s="44">
         <f>(U95)+((U96)*(U97-U95))</f>
-        <v>8.8752916000000001E-2</v>
+        <v>8.914764E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -8104,10 +8104,10 @@
       <c r="Q99" s="42"/>
       <c r="R99" s="42"/>
       <c r="S99" s="42"/>
-      <c r="T99" s="81" t="s">
+      <c r="T99" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="U99" s="81"/>
+      <c r="U99" s="82"/>
     </row>
     <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="U101" s="44">
         <f>U100/U104</f>
-        <v>7.624695244964183E-4</v>
+        <v>8.0536410154915172E-4</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="U102" s="47" cm="1">
         <f t="array" ref="U102">_FV(A1,"Market cap",TRUE)</f>
-        <v>57616045466</v>
+        <v>54545010000</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8322,7 +8322,7 @@
       </c>
       <c r="U103" s="44">
         <f>U102/U104</f>
-        <v>0.99923753047550357</v>
+        <v>0.99919463589845081</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8365,20 +8365,20 @@
       <c r="M104" s="11">
         <v>675978000</v>
       </c>
-      <c r="N104" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="O104" s="79"/>
-      <c r="P104" s="79"/>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
+      <c r="N104" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="O104" s="80"/>
+      <c r="P104" s="80"/>
+      <c r="Q104" s="80"/>
+      <c r="R104" s="80"/>
       <c r="S104" s="42"/>
       <c r="T104" s="33" t="s">
         <v>142</v>
       </c>
       <c r="U104" s="48">
         <f>U100+U102</f>
-        <v>57660009466</v>
+        <v>54588974000</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
@@ -8433,33 +8433,33 @@
         <f t="shared" si="16"/>
         <v>414856689.73243093</v>
       </c>
-      <c r="N105" s="49">
-        <f>M105*(1+$U$107)</f>
-        <v>466802178.60997313</v>
-      </c>
-      <c r="O105" s="49">
-        <f>N105*(1+$U$107)</f>
-        <v>525251922.7677356</v>
-      </c>
-      <c r="P105" s="49">
-        <f>O105*(1+$U$107)</f>
-        <v>591020340.12081397</v>
-      </c>
-      <c r="Q105" s="49">
-        <f>P105*(1+$U$107)</f>
-        <v>665023824.36967111</v>
-      </c>
-      <c r="R105" s="49">
-        <f>Q105*(1+$U$107)</f>
-        <v>748293513.70353651</v>
-      </c>
-      <c r="S105" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="T105" s="81" t="s">
+      <c r="N105" s="76">
+        <f>N107/N3</f>
+        <v>0.324295010845987</v>
+      </c>
+      <c r="O105" s="76">
+        <f>O107/O3</f>
+        <v>0.34791802212101497</v>
+      </c>
+      <c r="P105" s="76">
+        <f>P107/P3</f>
+        <v>0.33502611723737669</v>
+      </c>
+      <c r="Q105" s="76">
+        <f>Q107/Q3</f>
+        <v>0.3678039783954683</v>
+      </c>
+      <c r="R105" s="76">
+        <f>R107/R3</f>
+        <v>0.36783520982599793</v>
+      </c>
+      <c r="S105" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="T105" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="U105" s="81"/>
+      <c r="U105" s="82"/>
       <c r="V105" s="15"/>
       <c r="AH105" s="15"/>
       <c r="AI105" s="15"/>
@@ -8556,9 +8556,9 @@
       <c r="T106" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="U106" s="50">
+      <c r="U106" s="49">
         <f>(U101*U93)+(U103*U98)</f>
-        <v>8.8792231625342638E-2</v>
+        <v>8.9188849524902997E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -8601,25 +8601,25 @@
       <c r="M107" s="1">
         <v>448169000</v>
       </c>
-      <c r="N107" s="51">
+      <c r="N107" s="50">
         <v>1794000000</v>
       </c>
-      <c r="O107" s="51">
+      <c r="O107" s="50">
         <v>2139000000</v>
       </c>
-      <c r="P107" s="51">
+      <c r="P107" s="50">
         <v>2309000000</v>
       </c>
-      <c r="Q107" s="51">
+      <c r="Q107" s="50">
         <v>2792000000</v>
       </c>
-      <c r="R107" s="51">
+      <c r="R107" s="50">
         <v>2875000000</v>
       </c>
       <c r="S107" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="T107" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="T107" s="51" t="s">
         <v>144</v>
       </c>
       <c r="U107" s="35">
@@ -8628,18 +8628,18 @@
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.2">
-      <c r="N108" s="41"/>
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
-      <c r="R108" s="53">
+      <c r="N108" s="75"/>
+      <c r="O108" s="75"/>
+      <c r="P108" s="75"/>
+      <c r="Q108" s="75"/>
+      <c r="R108" s="52">
         <f>R107*(1+U108)/(U109-U108)</f>
-        <v>46194888075.200974</v>
-      </c>
-      <c r="S108" s="54" t="s">
+        <v>45909453461.332352</v>
+      </c>
+      <c r="S108" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="T108" s="55" t="s">
+      <c r="T108" s="54" t="s">
         <v>146</v>
       </c>
       <c r="U108" s="36">
@@ -8647,42 +8647,42 @@
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.2">
-      <c r="N109" s="53">
+      <c r="N109" s="52">
         <f>N108+N107</f>
         <v>1794000000</v>
       </c>
-      <c r="O109" s="53">
+      <c r="O109" s="52">
         <f>O108+O107</f>
         <v>2139000000</v>
       </c>
-      <c r="P109" s="53">
+      <c r="P109" s="52">
         <f>P108+P107</f>
         <v>2309000000</v>
       </c>
-      <c r="Q109" s="53">
+      <c r="Q109" s="52">
         <f>Q108+Q107</f>
         <v>2792000000</v>
       </c>
-      <c r="R109" s="53">
+      <c r="R109" s="52">
         <f>R108+R107</f>
-        <v>49069888075.200974</v>
-      </c>
-      <c r="S109" s="54" t="s">
+        <v>48784453461.332352</v>
+      </c>
+      <c r="S109" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="T109" s="56" t="s">
+      <c r="T109" s="55" t="s">
         <v>147</v>
       </c>
       <c r="U109" s="35">
         <f>U106</f>
-        <v>8.8792231625342638E-2</v>
+        <v>8.9188849524902997E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.2">
-      <c r="N110" s="80" t="s">
+      <c r="N110" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="O110" s="80"/>
+      <c r="O110" s="81"/>
       <c r="P110" s="42"/>
       <c r="Q110" s="42"/>
       <c r="R110" s="42"/>
@@ -8691,12 +8691,12 @@
       <c r="U110" s="42"/>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.2">
-      <c r="N111" s="57" t="s">
+      <c r="N111" s="56" t="s">
         <v>149</v>
       </c>
       <c r="O111" s="47">
         <f>NPV(U109,N109,O109,P109,Q109,R109)</f>
-        <v>39297011188.186279</v>
+        <v>39045700668.843781</v>
       </c>
       <c r="P111" s="42"/>
       <c r="Q111" s="42"/>
@@ -8706,7 +8706,7 @@
       <c r="U111" s="42"/>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.2">
-      <c r="N112" s="57" t="s">
+      <c r="N112" s="56" t="s">
         <v>150</v>
       </c>
       <c r="O112" s="47">
@@ -8721,7 +8721,7 @@
       <c r="U112" s="42"/>
     </row>
     <row r="113" spans="14:21" ht="20" x14ac:dyDescent="0.2">
-      <c r="N113" s="57" t="s">
+      <c r="N113" s="56" t="s">
         <v>138</v>
       </c>
       <c r="O113" s="47">
@@ -8736,12 +8736,12 @@
       <c r="U113" s="42"/>
     </row>
     <row r="114" spans="14:21" ht="20" x14ac:dyDescent="0.2">
-      <c r="N114" s="57" t="s">
+      <c r="N114" s="56" t="s">
         <v>151</v>
       </c>
       <c r="O114" s="47">
         <f>O111+O112-O113</f>
-        <v>42276776188.186279</v>
+        <v>42025465668.843781</v>
       </c>
       <c r="P114" s="42"/>
       <c r="Q114" s="42"/>
@@ -8751,10 +8751,10 @@
       <c r="U114" s="42"/>
     </row>
     <row r="115" spans="14:21" ht="20" x14ac:dyDescent="0.2">
-      <c r="N115" s="57" t="s">
+      <c r="N115" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="O115" s="57">
+      <c r="O115" s="56">
         <f>M34*(1+(S16*4))</f>
         <v>317011466.28182238</v>
       </c>
@@ -8766,12 +8766,12 @@
       <c r="U115" s="42"/>
     </row>
     <row r="116" spans="14:21" ht="20" x14ac:dyDescent="0.2">
-      <c r="N116" s="58" t="s">
+      <c r="N116" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="O116" s="59">
+      <c r="O116" s="58">
         <f>O114/O115</f>
-        <v>133.36040075787773</v>
+        <v>132.56765176904753</v>
       </c>
       <c r="P116" s="42"/>
       <c r="Q116" s="42"/>
@@ -8781,12 +8781,12 @@
       <c r="U116" s="42"/>
     </row>
     <row r="117" spans="14:21" ht="20" x14ac:dyDescent="0.2">
-      <c r="N117" s="57" t="s">
+      <c r="N117" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="O117" s="60" cm="1">
+      <c r="O117" s="59" cm="1">
         <f t="array" ref="O117">_FV(A1,"Price")</f>
-        <v>186.11</v>
+        <v>176.19</v>
       </c>
       <c r="P117" s="42"/>
       <c r="Q117" s="42"/>
@@ -8796,12 +8796,12 @@
       <c r="U117" s="42"/>
     </row>
     <row r="118" spans="14:21" ht="20" x14ac:dyDescent="0.2">
-      <c r="N118" s="58" t="s">
+      <c r="N118" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="O118" s="61">
+      <c r="O118" s="60">
         <f>O116/O117-1</f>
-        <v>-0.2834323746285653</v>
+        <v>-0.24758696992424356</v>
       </c>
       <c r="P118" s="42"/>
       <c r="Q118" s="42"/>
@@ -8811,10 +8811,10 @@
       <c r="U118" s="42"/>
     </row>
     <row r="119" spans="14:21" ht="20" x14ac:dyDescent="0.2">
-      <c r="N119" s="58" t="s">
+      <c r="N119" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="O119" s="62" t="str">
+      <c r="O119" s="61" t="str">
         <f>IF(O116&gt;O117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Arista Networks.xlsx
+++ b/Technology/Hardware/Arista Networks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353D9712-FADF-E64D-98F1-202D296E5334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E19D476-EC10-984A-AB03-D8E99D2F0FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2484,10 +2484,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2504,7 +2504,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2641,13 +2641,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>198.7</v>
+    <v>214.26</v>
     <v>107.57</v>
-    <v>1.1448</v>
-    <v>6.37</v>
-    <v>3.7510000000000002E-2</v>
-    <v>0.28000000000000003</v>
-    <v>1.5890000000000001E-3</v>
+    <v>1.1240000000000001</v>
+    <v>0.84</v>
+    <v>3.9839999999999997E-3</v>
     <v>USD</v>
     <v>Arista Networks, Inc. is a supplier of cloud networking solutions that use software to address the needs of Internet companies, cloud service providers and enterprises. The Company cloud networking solutions consist of its Extensible Operating System (EOS), a set of network applications and its Gigabit Ethernet switching and routing platforms. Its cognitive single-tier Spline campus network extends EOS across the data center and campus wired and wireless workspace. The Company’s CloudVision is a network-wide approach for workload orchestration and automation, leverages EOS and Cognitive WiFi features, to deliver cloud networking solutions to its enterprise customers. The Company sells its products through both its direct sales force and its channel partners. Its end customers span a range of industries and include large Internet companies, service providers, financial services organizations, government agencies, media and entertainment companies and other cloud service providers.</v>
     <v>3612</v>
@@ -2655,25 +2653,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5453 Great America Pkwy, SANTA CLARA, CA, 95054 US</v>
-    <v>177</v>
+    <v>214.26</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45226.996621400001</v>
+    <v>45232.998234385937</v>
     <v>0</v>
-    <v>170.87</v>
-    <v>54545010000</v>
+    <v>208.53</v>
+    <v>65532021408</v>
     <v>ARISTA NETWORKS, INC.</v>
     <v>ARISTA NETWORKS, INC.</v>
-    <v>171.47</v>
-    <v>32.528300000000002</v>
-    <v>169.82</v>
-    <v>176.19</v>
-    <v>176.47</v>
+    <v>212.26</v>
+    <v>35.236400000000003</v>
+    <v>210.84</v>
+    <v>211.68</v>
     <v>309580600</v>
     <v>ANET</v>
     <v>ARISTA NETWORKS, INC. (XNYS:ANET)</v>
-    <v>2789439</v>
-    <v>1905127</v>
+    <v>3200389</v>
+    <v>2502081</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2705,8 +2702,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2727,7 +2722,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2744,7 +2738,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2755,16 +2749,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2830,19 +2821,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2887,9 +2872,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2897,9 +2879,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3261,7 +3240,7 @@
   <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
@@ -4205,15 +4184,15 @@
       </c>
       <c r="T16" s="66">
         <f>U102/M3</f>
-        <v>12.4494751569736</v>
+        <v>14.957175230239358</v>
       </c>
       <c r="U16" s="66">
         <f>U102/M28</f>
-        <v>40.330637970018763</v>
+        <v>48.454445802642027</v>
       </c>
       <c r="V16" s="67">
         <f>U102/M107</f>
-        <v>121.70634291974679</v>
+        <v>146.22167398459064</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4375,15 +4354,15 @@
       </c>
       <c r="T19" s="66">
         <f>U102/N3</f>
-        <v>9.8599078091106289</v>
+        <v>11.845990854663775</v>
       </c>
       <c r="U19" s="66">
         <f>U102/N28</f>
-        <v>29.451949244060476</v>
+        <v>35.384460803455724</v>
       </c>
       <c r="V19" s="67">
         <f>U102/N107</f>
-        <v>30.404130434782608</v>
+        <v>36.528440026755852</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4589,7 +4568,7 @@
       </c>
       <c r="V22" s="71">
         <f>N107/U102</f>
-        <v>3.2890268055684652E-2</v>
+        <v>2.7375929529635912E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7894,7 +7873,7 @@
       </c>
       <c r="U95" s="45">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7948,7 +7927,7 @@
       </c>
       <c r="U96" s="46" cm="1">
         <f t="array" ref="U96">_FV(A1,"Beta")</f>
-        <v>1.1448</v>
+        <v>1.1240000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8055,7 +8034,7 @@
       </c>
       <c r="U98" s="44">
         <f>(U95)+((U96)*(U97-U95))</f>
-        <v>8.914764E-2</v>
+        <v>8.8371000000000005E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -8214,7 +8193,7 @@
       </c>
       <c r="U101" s="44">
         <f>U100/U104</f>
-        <v>8.0536410154915172E-4</v>
+        <v>6.7042835462502361E-4</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8268,7 +8247,7 @@
       </c>
       <c r="U102" s="47" cm="1">
         <f t="array" ref="U102">_FV(A1,"Market cap",TRUE)</f>
-        <v>54545010000</v>
+        <v>65532021408</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8322,7 +8301,7 @@
       </c>
       <c r="U103" s="44">
         <f>U102/U104</f>
-        <v>0.99919463589845081</v>
+        <v>0.99932957164537495</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8378,7 +8357,7 @@
       </c>
       <c r="U104" s="48">
         <f>U100+U102</f>
-        <v>54588974000</v>
+        <v>65575985408</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
@@ -8558,7 +8537,7 @@
       </c>
       <c r="U106" s="49">
         <f>(U101*U93)+(U103*U98)</f>
-        <v>8.9188849524902997E-2</v>
+        <v>8.8405825704413493E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -8634,7 +8613,7 @@
       <c r="Q108" s="75"/>
       <c r="R108" s="52">
         <f>R107*(1+U108)/(U109-U108)</f>
-        <v>45909453461.332352</v>
+        <v>46476407605.474586</v>
       </c>
       <c r="S108" s="53" t="s">
         <v>145</v>
@@ -8665,7 +8644,7 @@
       </c>
       <c r="R109" s="52">
         <f>R108+R107</f>
-        <v>48784453461.332352</v>
+        <v>49351407605.474586</v>
       </c>
       <c r="S109" s="53" t="s">
         <v>142</v>
@@ -8675,7 +8654,7 @@
       </c>
       <c r="U109" s="35">
         <f>U106</f>
-        <v>8.9188849524902997E-2</v>
+        <v>8.8405825704413493E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.2">
@@ -8696,7 +8675,7 @@
       </c>
       <c r="O111" s="47">
         <f>NPV(U109,N109,O109,P109,Q109,R109)</f>
-        <v>39045700668.843781</v>
+        <v>39544885309.742622</v>
       </c>
       <c r="P111" s="42"/>
       <c r="Q111" s="42"/>
@@ -8741,7 +8720,7 @@
       </c>
       <c r="O114" s="47">
         <f>O111+O112-O113</f>
-        <v>42025465668.843781</v>
+        <v>42524650309.742622</v>
       </c>
       <c r="P114" s="42"/>
       <c r="Q114" s="42"/>
@@ -8771,7 +8750,7 @@
       </c>
       <c r="O116" s="58">
         <f>O114/O115</f>
-        <v>132.56765176904753</v>
+        <v>134.14230976723826</v>
       </c>
       <c r="P116" s="42"/>
       <c r="Q116" s="42"/>
@@ -8786,7 +8765,7 @@
       </c>
       <c r="O117" s="59" cm="1">
         <f t="array" ref="O117">_FV(A1,"Price")</f>
-        <v>176.19</v>
+        <v>211.68</v>
       </c>
       <c r="P117" s="42"/>
       <c r="Q117" s="42"/>
@@ -8801,7 +8780,7 @@
       </c>
       <c r="O118" s="60">
         <f>O116/O117-1</f>
-        <v>-0.24758696992424356</v>
+        <v>-0.3662967225659568</v>
       </c>
       <c r="P118" s="42"/>
       <c r="Q118" s="42"/>

--- a/Technology/Hardware/Arista Networks.xlsx
+++ b/Technology/Hardware/Arista Networks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E19D476-EC10-984A-AB03-D8E99D2F0FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83338CA3-3DEA-C04B-A051-EABA88FFF310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2504,7 +2504,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2641,11 +2641,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>214.26</v>
+    <v>216.29</v>
     <v>107.57</v>
-    <v>1.1240000000000001</v>
-    <v>0.84</v>
-    <v>3.9839999999999997E-3</v>
+    <v>1.119</v>
+    <v>2.02</v>
+    <v>9.6369999999999997E-3</v>
+    <v>-12.24</v>
+    <v>-5.7834000000000003E-2</v>
     <v>USD</v>
     <v>Arista Networks, Inc. is a supplier of cloud networking solutions that use software to address the needs of Internet companies, cloud service providers and enterprises. The Company cloud networking solutions consist of its Extensible Operating System (EOS), a set of network applications and its Gigabit Ethernet switching and routing platforms. Its cognitive single-tier Spline campus network extends EOS across the data center and campus wired and wireless workspace. The Company’s CloudVision is a network-wide approach for workload orchestration and automation, leverages EOS and Cognitive WiFi features, to deliver cloud networking solutions to its enterprise customers. The Company sells its products through both its direct sales force and its channel partners. Its end customers span a range of industries and include large Internet companies, service providers, financial services organizations, government agencies, media and entertainment companies and other cloud service providers.</v>
     <v>3612</v>
@@ -2653,24 +2655,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5453 Great America Pkwy, SANTA CLARA, CA, 95054 US</v>
-    <v>214.26</v>
+    <v>213.33500000000001</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45232.998234385937</v>
+    <v>45239.963656145315</v>
     <v>0</v>
-    <v>208.53</v>
-    <v>65532021408</v>
+    <v>205.57</v>
+    <v>65835003162</v>
     <v>ARISTA NETWORKS, INC.</v>
     <v>ARISTA NETWORKS, INC.</v>
-    <v>212.26</v>
-    <v>35.236400000000003</v>
-    <v>210.84</v>
-    <v>211.68</v>
-    <v>309580600</v>
+    <v>209.6</v>
+    <v>34.8902</v>
+    <v>209.6</v>
+    <v>211.62</v>
+    <v>199.4</v>
+    <v>311100100</v>
     <v>ANET</v>
     <v>ARISTA NETWORKS, INC. (XNYS:ANET)</v>
-    <v>3200389</v>
-    <v>2502081</v>
+    <v>2075165</v>
+    <v>2622075</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2702,6 +2705,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2722,6 +2727,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2738,7 +2744,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2749,13 +2755,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2821,13 +2830,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2872,6 +2887,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2879,6 +2897,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3240,10 +3261,10 @@
   <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4184,15 +4205,15 @@
       </c>
       <c r="T16" s="66">
         <f>U102/M3</f>
-        <v>14.957175230239358</v>
+        <v>15.026328463861265</v>
       </c>
       <c r="U16" s="66">
         <f>U102/M28</f>
-        <v>48.454445802642027</v>
+        <v>48.678470831367761</v>
       </c>
       <c r="V16" s="67">
         <f>U102/M107</f>
-        <v>146.22167398459064</v>
+        <v>146.89771751727585</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4354,15 +4375,15 @@
       </c>
       <c r="T19" s="66">
         <f>U102/N3</f>
-        <v>11.845990854663775</v>
+        <v>11.900759790672451</v>
       </c>
       <c r="U19" s="66">
         <f>U102/N28</f>
-        <v>35.384460803455724</v>
+        <v>35.548057862850975</v>
       </c>
       <c r="V19" s="67">
         <f>U102/N107</f>
-        <v>36.528440026755852</v>
+        <v>36.697326177257523</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4568,7 +4589,7 @@
       </c>
       <c r="V22" s="71">
         <f>N107/U102</f>
-        <v>2.7375929529635912E-2</v>
+        <v>2.7249941730624807E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7873,7 +7894,7 @@
       </c>
       <c r="U95" s="45">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7927,7 +7948,7 @@
       </c>
       <c r="U96" s="46" cm="1">
         <f t="array" ref="U96">_FV(A1,"Beta")</f>
-        <v>1.1240000000000001</v>
+        <v>1.119</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8034,7 +8055,7 @@
       </c>
       <c r="U98" s="44">
         <f>(U95)+((U96)*(U97-U95))</f>
-        <v>8.8371000000000005E-2</v>
+        <v>8.8556510000000005E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -8193,7 +8214,7 @@
       </c>
       <c r="U101" s="44">
         <f>U100/U104</f>
-        <v>6.7042835462502361E-4</v>
+        <v>6.6734501000736859E-4</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8247,7 +8268,7 @@
       </c>
       <c r="U102" s="47" cm="1">
         <f t="array" ref="U102">_FV(A1,"Market cap",TRUE)</f>
-        <v>65532021408</v>
+        <v>65835003162</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8301,7 +8322,7 @@
       </c>
       <c r="U103" s="44">
         <f>U102/U104</f>
-        <v>0.99932957164537495</v>
+        <v>0.99933265498999269</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8357,7 +8378,7 @@
       </c>
       <c r="U104" s="48">
         <f>U100+U102</f>
-        <v>65575985408</v>
+        <v>65878967162</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
@@ -8537,7 +8558,7 @@
       </c>
       <c r="U106" s="49">
         <f>(U101*U93)+(U103*U98)</f>
-        <v>8.8405825704413493E-2</v>
+        <v>8.8591051739508556E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -8613,7 +8634,7 @@
       <c r="Q108" s="75"/>
       <c r="R108" s="52">
         <f>R107*(1+U108)/(U109-U108)</f>
-        <v>46476407605.474586</v>
+        <v>46341032572.812958</v>
       </c>
       <c r="S108" s="53" t="s">
         <v>145</v>
@@ -8644,7 +8665,7 @@
       </c>
       <c r="R109" s="52">
         <f>R108+R107</f>
-        <v>49351407605.474586</v>
+        <v>49216032572.812958</v>
       </c>
       <c r="S109" s="53" t="s">
         <v>142</v>
@@ -8654,7 +8675,7 @@
       </c>
       <c r="U109" s="35">
         <f>U106</f>
-        <v>8.8405825704413493E-2</v>
+        <v>8.8591051739508556E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.2">
@@ -8675,7 +8696,7 @@
       </c>
       <c r="O111" s="47">
         <f>NPV(U109,N109,O109,P109,Q109,R109)</f>
-        <v>39544885309.742622</v>
+        <v>39425688125.972473</v>
       </c>
       <c r="P111" s="42"/>
       <c r="Q111" s="42"/>
@@ -8720,7 +8741,7 @@
       </c>
       <c r="O114" s="47">
         <f>O111+O112-O113</f>
-        <v>42524650309.742622</v>
+        <v>42405453125.972473</v>
       </c>
       <c r="P114" s="42"/>
       <c r="Q114" s="42"/>
@@ -8750,7 +8771,7 @@
       </c>
       <c r="O116" s="58">
         <f>O114/O115</f>
-        <v>134.14230976723826</v>
+        <v>133.76630701513534</v>
       </c>
       <c r="P116" s="42"/>
       <c r="Q116" s="42"/>
@@ -8765,7 +8786,7 @@
       </c>
       <c r="O117" s="59" cm="1">
         <f t="array" ref="O117">_FV(A1,"Price")</f>
-        <v>211.68</v>
+        <v>211.62</v>
       </c>
       <c r="P117" s="42"/>
       <c r="Q117" s="42"/>
@@ -8780,7 +8801,7 @@
       </c>
       <c r="O118" s="60">
         <f>O116/O117-1</f>
-        <v>-0.3662967225659568</v>
+        <v>-0.36789383321455749</v>
       </c>
       <c r="P118" s="42"/>
       <c r="Q118" s="42"/>

--- a/Technology/Hardware/Arista Networks.xlsx
+++ b/Technology/Hardware/Arista Networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347B7C05-9373-7E40-994C-C00B99D310B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB5CF7F-7737-764C-92EF-720266A34FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1824,7 +1824,10 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1842,7 +1845,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1854,6 +1857,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1979,13 +1985,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>223.52</v>
+    <v>224.23</v>
     <v>107.57</v>
-    <v>1.1137999999999999</v>
-    <v>-3.04</v>
-    <v>-1.3835999999999999E-2</v>
-    <v>-0.1</v>
-    <v>-4.616E-4</v>
+    <v>1.0956999999999999</v>
+    <v>8.74</v>
+    <v>4.0595999999999993E-2</v>
+    <v>0.12</v>
+    <v>5.3560000000000001E-4</v>
     <v>USD</v>
     <v>Arista Networks, Inc. is a supplier of cloud networking solutions that use software to address the needs of Internet companies, cloud service providers and enterprises. The Company cloud networking solutions consist of its Extensible Operating System (EOS), a set of network applications and its Gigabit Ethernet switching and routing platforms. Its cognitive single-tier Spline campus network extends EOS across the data center and campus wired and wireless workspace. The Company’s CloudVision is a network-wide approach for workload orchestration and automation, leverages EOS and Cognitive WiFi features, to deliver cloud networking solutions to its enterprise customers. The Company sells its products through both its direct sales force and its channel partners. Its end customers span a range of industries and include large Internet companies, service providers, financial services organizations, government agencies, media and entertainment companies and other cloud service providers.</v>
     <v>3612</v>
@@ -1993,25 +1999,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5453 Great America Pkwy, SANTA CLARA, CA, 95054 US</v>
-    <v>219.01</v>
+    <v>224.23</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45262.04103626094</v>
+    <v>45269.039008217187</v>
     <v>0</v>
-    <v>215.26</v>
-    <v>67406058666</v>
+    <v>216.43</v>
+    <v>69695755403</v>
     <v>ARISTA NETWORKS, INC.</v>
     <v>ARISTA NETWORKS, INC.</v>
-    <v>219.01</v>
-    <v>36.573099999999997</v>
-    <v>219.71</v>
-    <v>216.67</v>
-    <v>216.54</v>
+    <v>216.43</v>
+    <v>35.837299999999999</v>
+    <v>215.29</v>
+    <v>224.03</v>
+    <v>224.15</v>
     <v>311100100</v>
     <v>ANET</v>
     <v>ARISTA NETWORKS, INC. (XNYS:ANET)</v>
-    <v>1645038</v>
-    <v>2578398</v>
+    <v>2211735</v>
+    <v>1818299</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2176,9 +2182,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -13592,7 +13598,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>67406058666</v>
+        <v>69695755403</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>200</v>
@@ -13620,7 +13626,7 @@
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>47314768391.258263</v>
+        <v>46970396589.480728</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>204</v>
@@ -13672,14 +13678,14 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>39553464583.516388</v>
+        <v>39251163483.88504</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.3835999999999999E-2</v>
+        <v>4.0595999999999993E-2</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>212</v>
@@ -13724,14 +13730,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>43961023583.516388</v>
+        <v>43658722483.88504</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>216.67</v>
+        <v>224.03</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>219</v>
@@ -13751,7 +13757,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>11.524373169088733</v>
+        <v>11.915841238331339</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>221</v>
@@ -13779,14 +13785,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>9.6684277770376761E-2</v>
+        <v>9.7209843779764771E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>139.36557288172122</v>
+        <v>138.40721562571105</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>225</v>
@@ -13806,14 +13812,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>32.484847549879518</v>
+        <v>33.588315856867467</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>2.7905503410612362E-2</v>
+        <v>2.6988731080157483E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>228</v>
@@ -13840,7 +13846,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.35678417463552303</v>
+        <v>-0.38219338648524281</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>231</v>
@@ -14167,7 +14173,7 @@
       </c>
       <c r="O14" s="92">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -14319,7 +14325,7 @@
       </c>
       <c r="O17" s="102">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -14402,7 +14408,7 @@
       </c>
       <c r="O20" s="108">
         <f>A3</f>
-        <v>67406058666</v>
+        <v>69695755403</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
@@ -14432,7 +14438,7 @@
       </c>
       <c r="O21" s="108">
         <f>O19+O20</f>
-        <v>67454102666</v>
+        <v>69743799403</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -14460,7 +14466,7 @@
       </c>
       <c r="O22" s="110">
         <f>(O19/O21)</f>
-        <v>7.122472629706541E-4</v>
+        <v>6.8886410564454289E-4</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
@@ -14485,7 +14491,7 @@
       </c>
       <c r="O23" s="111">
         <f>O20/O21</f>
-        <v>0.9992877527370293</v>
+        <v>0.9993111358943555</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
@@ -14529,7 +14535,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.6684277770376761E-2</v>
+        <v>9.7209843779764771E-2</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="44"/>
